--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="16740"/>
+    <workbookView windowHeight="18640"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -1936,18 +1936,18 @@
   <sheetPr/>
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="118.133928571429" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" style="9" customWidth="1"/>
-    <col min="4" max="5" width="13.3571428571429" style="9" customWidth="1"/>
+    <col min="2" max="2" width="118.134615384615" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.6923076923077" style="9" customWidth="1"/>
+    <col min="4" max="5" width="13.3557692307692" style="9" customWidth="1"/>
     <col min="6" max="6" width="65.75" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.16071428571429" style="9"/>
+    <col min="7" max="16384" width="9.16346153846154" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
@@ -2014,7 +2014,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" ht="34" spans="1:6">
+    <row r="5" ht="17" spans="1:6">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" ht="34" spans="1:6">
+    <row r="6" ht="17" spans="1:6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" ht="34" spans="1:6">
+    <row r="11" ht="17" spans="1:6">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" ht="68" spans="1:6">
+    <row r="16" ht="51" spans="1:6">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" ht="34" spans="1:6">
+    <row r="24" ht="17" spans="1:6">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" ht="84" spans="1:6">
+    <row r="33" ht="68" spans="1:6">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" ht="51" spans="1:6">
+    <row r="35" ht="34" spans="1:6">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" ht="51" spans="1:6">
+    <row r="36" ht="34" spans="1:6">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" ht="51" spans="1:6">
+    <row r="41" ht="34" spans="1:6">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" ht="51" spans="1:6">
+    <row r="42" ht="34" spans="1:6">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" ht="51" spans="1:6">
+    <row r="45" ht="34" spans="1:6">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" ht="51" spans="1:6">
+    <row r="50" ht="34" spans="1:6">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" ht="51" spans="1:6">
+    <row r="51" ht="34" spans="1:6">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" ht="68" spans="1:6">
+    <row r="55" ht="51" spans="1:6">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" ht="68" spans="1:6">
+    <row r="62" ht="51" spans="1:6">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" ht="135" spans="1:6">
+    <row r="63" ht="118" spans="1:6">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" ht="68" spans="1:6">
+    <row r="64" ht="51" spans="1:6">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" ht="152" spans="1:6">
+    <row r="65" ht="118" spans="1:6">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" ht="51" spans="1:6">
+    <row r="73" ht="34" spans="1:6">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" ht="68" spans="1:6">
+    <row r="78" ht="51" spans="1:6">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" ht="51" spans="1:6">
+    <row r="83" ht="34" spans="1:6">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" ht="51" spans="1:6">
+    <row r="88" ht="34" spans="1:6">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" ht="51" spans="1:6">
+    <row r="89" ht="34" spans="1:6">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" ht="68" spans="1:6">
+    <row r="91" ht="51" spans="1:6">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" ht="34" spans="1:6">
+    <row r="94" ht="17" spans="1:6">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" ht="51" spans="1:6">
+    <row r="98" ht="34" spans="1:6">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" ht="34" spans="1:6">
+    <row r="106" ht="17" spans="1:6">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" ht="51" spans="1:6">
+    <row r="107" ht="34" spans="1:6">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" ht="84" spans="1:6">
+    <row r="109" ht="68" spans="1:6">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" ht="101" spans="1:6">
+    <row r="110" ht="84" spans="1:6">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" ht="84" spans="1:6">
+    <row r="111" ht="68" spans="1:6">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" ht="135" spans="1:6">
+    <row r="112" ht="118" spans="1:6">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" ht="68" spans="1:6">
+    <row r="113" ht="51" spans="1:6">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" ht="135" spans="1:6">
+    <row r="114" ht="118" spans="1:6">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" ht="152" spans="1:6">
+    <row r="115" ht="135" spans="1:6">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" ht="185" spans="1:6">
+    <row r="117" ht="152" spans="1:6">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -3741,13 +3741,13 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="46.8303571428571" customWidth="1"/>
-    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
-    <col min="5" max="5" width="37.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="46.8269230769231" customWidth="1"/>
+    <col min="4" max="4" width="29.1634615384615" customWidth="1"/>
+    <col min="5" max="5" width="37.6634615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:5">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" ht="51" spans="1:5">
+    <row r="5" ht="34" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" ht="101" spans="1:5">
+    <row r="6" ht="84" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" ht="68" spans="1:5">
+    <row r="10" ht="51" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" ht="84" spans="1:5">
+    <row r="25" ht="68" spans="1:5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" ht="101" spans="1:5">
+    <row r="26" ht="84" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" ht="135" spans="1:5">
+    <row r="27" ht="118" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" ht="51" spans="1:5">
+    <row r="32" ht="34" spans="1:5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" ht="68" spans="1:5">
+    <row r="33" ht="51" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" ht="51" spans="1:5">
+    <row r="38" ht="34" spans="1:5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" ht="84" spans="1:5">
+    <row r="39" ht="68" spans="1:5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" ht="168" spans="1:5">
+    <row r="40" ht="152" spans="1:5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" ht="202" spans="1:5">
+    <row r="41" ht="168" spans="1:5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" ht="236" spans="1:5">
+    <row r="42" ht="202" spans="1:5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" ht="152" spans="1:5">
+    <row r="43" ht="135" spans="1:5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" ht="269" spans="1:5">
+    <row r="44" ht="219" spans="1:5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" ht="84" spans="1:5">
+    <row r="45" ht="68" spans="1:5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" ht="84" spans="1:5">
+    <row r="46" ht="68" spans="1:5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" ht="118" spans="1:5">
+    <row r="49" ht="101" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" ht="101" spans="1:5">
+    <row r="50" ht="84" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" ht="135" spans="1:5">
+    <row r="51" ht="118" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" ht="84" spans="1:5">
+    <row r="57" ht="68" spans="1:5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" ht="68" spans="1:5">
+    <row r="58" ht="51" spans="1:5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" ht="68" spans="1:5">
+    <row r="59" ht="51" spans="1:5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" ht="84" spans="1:5">
+    <row r="61" ht="68" spans="1:5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" ht="68" spans="1:5">
+    <row r="62" ht="51" spans="1:5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" ht="101" spans="1:5">
+    <row r="64" ht="84" spans="1:5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" ht="68" spans="1:5">
+    <row r="66" ht="51" spans="1:5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" ht="68" spans="1:5">
+    <row r="67" ht="51" spans="1:5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" ht="68" spans="1:5">
+    <row r="68" ht="51" spans="1:5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" ht="84" spans="1:5">
+    <row r="74" ht="68" spans="1:5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" ht="84" spans="1:5">
+    <row r="76" ht="68" spans="1:5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" ht="51" spans="1:5">
+    <row r="78" ht="34" spans="1:5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" ht="68" spans="1:5">
+    <row r="79" ht="51" spans="1:5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" ht="68" spans="1:5">
+    <row r="83" ht="51" spans="1:5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" ht="118" spans="1:5">
+    <row r="86" ht="101" spans="1:5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" ht="118" spans="1:5">
+    <row r="87" ht="101" spans="1:5">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" ht="84" spans="1:5">
+    <row r="88" ht="68" spans="1:5">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" ht="303" spans="1:5">
+    <row r="89" ht="269" spans="1:5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" ht="252" spans="1:5">
+    <row r="90" ht="202" spans="1:5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" ht="185" spans="1:5">
+    <row r="91" ht="168" spans="1:5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" ht="101" spans="1:5">
+    <row r="92" ht="84" spans="1:5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" ht="135" spans="1:5">
+    <row r="95" ht="101" spans="1:5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" ht="118" spans="1:5">
+    <row r="96" ht="101" spans="1:5">
       <c r="A96" s="1">
         <v>95</v>
       </c>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="858">
   <si>
     <t>TaskId</t>
   </si>
@@ -445,6 +445,33 @@
   </si>
   <si>
     <t>1. Write Python code to move Axis 6 to 20 with a velocity of 900 using an trapezoid profile ; 2. set IO output bit 6.7 to 1, sleep for 0.1 seconds, then set it to 0; 3. Move Axis 7 to 30; 4. Linearly interpolate Axis 7 and 8 to (40, 50); 5.start a clockwise circular interpolation motion command for Axis 6 and 7, with a center position of (50, 50), an arc length of 360; 6. establish synchronous control between master axis 6 and slave axis 7, then move Axis 6 to position 60;</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 10 to the position 10 at a speed of 1000, acceleration of 10000, deceleration of 10000, starting Velocity of 10, and end Velocity of 0, using an Trapezoidal profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Python code to </t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000, acceleration of 10000, deceleration of 10000, starting Velocity of 10, and end Velocity of 0, using Tixing profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to the position 120 at a speed of 1000 , acceleration of 10000,deceleration of 10000, starting Velocity of 0,and end Velocity of 20, using an SCurve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 4 to the position 144 and then 0 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 30, and end Velocity of 0, using an S profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 5 to the position 50 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a JerkRatio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 15 to the position -410 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 0,and end Velocity of 0, using a Parab profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 9 to the position 90 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a Jerk-Ratio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 5 to the position 10 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 0,and end Velocity of 0, using a Parabolic profile.</t>
   </si>
   <si>
     <t>轴列表</t>
@@ -53374,7 +53401,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53428,6 +53455,12 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="0.4"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -53947,16 +53980,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -53965,119 +53995,122 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -54161,6 +54194,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -54514,16 +54550,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="18" customWidth="1"/>
-    <col min="2" max="2" width="118.134615384615" style="18" customWidth="1"/>
+    <col min="2" max="2" width="124.913461538462" style="18" customWidth="1"/>
     <col min="3" max="3" width="18.6923076923077" style="18" customWidth="1"/>
     <col min="4" max="5" width="13.3557692307692" style="18" customWidth="1"/>
     <col min="6" max="6" width="65.75" style="19" customWidth="1"/>
@@ -56196,91 +56232,627 @@
       <c r="A118" s="28">
         <v>117</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
+      <c r="D118" s="21">
+        <v>1</v>
+      </c>
       <c r="E118" s="21"/>
       <c r="F118" s="8"/>
     </row>
     <row r="119" customHeight="1" spans="1:6">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="28">
+        <v>118</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="8"/>
     </row>
     <row r="120" customHeight="1" spans="1:6">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="28">
+        <v>119</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="8"/>
     </row>
     <row r="121" customHeight="1" spans="1:6">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
+      <c r="A121" s="28">
+        <v>120</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="8"/>
     </row>
     <row r="122" customHeight="1" spans="1:6">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="28">
+        <v>121</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
       <c r="F122" s="8"/>
     </row>
     <row r="123" customHeight="1" spans="1:6">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="28">
+        <v>122</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="D123" s="21">
+        <v>2</v>
+      </c>
       <c r="E123" s="21"/>
       <c r="F123" s="8"/>
     </row>
     <row r="124" customHeight="1" spans="1:6">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
+      <c r="A124" s="28">
+        <v>123</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
       <c r="F124" s="8"/>
     </row>
     <row r="125" customHeight="1" spans="1:6">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21"/>
+      <c r="A125" s="28">
+        <v>124</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
       <c r="F125" s="8"/>
     </row>
     <row r="126" customHeight="1" spans="1:6">
-      <c r="A126" s="21"/>
-      <c r="B126" s="21"/>
+      <c r="A126" s="28">
+        <v>125</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
       <c r="F126" s="8"/>
     </row>
     <row r="127" customHeight="1" spans="1:6">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21"/>
+      <c r="A127" s="28">
+        <v>126</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
       <c r="F127" s="8"/>
     </row>
     <row r="128" customHeight="1" spans="1:6">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21"/>
+      <c r="A128" s="28">
+        <v>127</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
       <c r="F128" s="8"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:2">
+      <c r="A129" s="28">
+        <v>128</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:2">
+      <c r="A130" s="28">
+        <v>129</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:2">
+      <c r="A131" s="28">
+        <v>130</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="28">
+        <v>131</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:2">
+      <c r="A133" s="28">
+        <v>132</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:2">
+      <c r="A134" s="28">
+        <v>133</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:2">
+      <c r="A135" s="28">
+        <v>134</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:2">
+      <c r="A136" s="28">
+        <v>135</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:2">
+      <c r="A137" s="28">
+        <v>136</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:2">
+      <c r="A138" s="28">
+        <v>137</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:2">
+      <c r="A139" s="28">
+        <v>138</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:2">
+      <c r="A140" s="28">
+        <v>139</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:2">
+      <c r="A141" s="28">
+        <v>140</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:2">
+      <c r="A142" s="28">
+        <v>141</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:2">
+      <c r="A143" s="28">
+        <v>142</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:2">
+      <c r="A144" s="28">
+        <v>143</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:2">
+      <c r="A145" s="28">
+        <v>144</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:2">
+      <c r="A146" s="28">
+        <v>145</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:4">
+      <c r="A147" s="28">
+        <v>146</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:2">
+      <c r="A148" s="28">
+        <v>147</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:2">
+      <c r="A149" s="28">
+        <v>148</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:2">
+      <c r="A150" s="28">
+        <v>149</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:2">
+      <c r="A151" s="28">
+        <v>150</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:2">
+      <c r="A152" s="28">
+        <v>151</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:2">
+      <c r="A153" s="28">
+        <v>152</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:2">
+      <c r="A154" s="28">
+        <v>153</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:2">
+      <c r="A155" s="28">
+        <v>154</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:4">
+      <c r="A156" s="28">
+        <v>155</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:2">
+      <c r="A157" s="28">
+        <v>156</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:2">
+      <c r="A158" s="28">
+        <v>157</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:2">
+      <c r="A159" s="28">
+        <v>158</v>
+      </c>
+      <c r="B159" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:2">
+      <c r="A160" s="28">
+        <v>159</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:4">
+      <c r="A161" s="28">
+        <v>160</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D161" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:2">
+      <c r="A162" s="28">
+        <v>161</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:2">
+      <c r="A163" s="28">
+        <v>162</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:2">
+      <c r="A164" s="28">
+        <v>163</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:2">
+      <c r="A165" s="28">
+        <v>164</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:2">
+      <c r="A166" s="28">
+        <v>165</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:2">
+      <c r="A167" s="28">
+        <v>166</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:2">
+      <c r="A168" s="28">
+        <v>167</v>
+      </c>
+      <c r="B168" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:2">
+      <c r="A169" s="28">
+        <v>168</v>
+      </c>
+      <c r="B169" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:2">
+      <c r="A170" s="28">
+        <v>169</v>
+      </c>
+      <c r="B170" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:4">
+      <c r="A171" s="28">
+        <v>170</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D171" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:2">
+      <c r="A172" s="28">
+        <v>171</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:2">
+      <c r="A173" s="28">
+        <v>172</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:2">
+      <c r="A174" s="28">
+        <v>173</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:2">
+      <c r="A175" s="28">
+        <v>174</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:2">
+      <c r="A176" s="28">
+        <v>175</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:2">
+      <c r="A177" s="28">
+        <v>176</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:2">
+      <c r="A178" s="28">
+        <v>177</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:2">
+      <c r="A179" s="28">
+        <v>178</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:2">
+      <c r="A180" s="28">
+        <v>179</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:2">
+      <c r="A181" s="28">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:2">
+      <c r="A182" s="28">
+        <v>181</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:2">
+      <c r="A183" s="28">
+        <v>182</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:2">
+      <c r="A184" s="28">
+        <v>183</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:2">
+      <c r="A185" s="28">
+        <v>184</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:2">
+      <c r="A186" s="28">
+        <v>185</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:4">
+      <c r="A187" s="28">
+        <v>186</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D187" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -56336,28 +56908,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -56372,18 +56944,18 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -56398,18 +56970,18 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56424,18 +56996,18 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -56450,18 +57022,18 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56476,18 +57048,18 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -56502,18 +57074,18 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -56528,18 +57100,18 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56547,25 +57119,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C9" s="17">
         <v>8</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -56580,18 +57152,18 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56606,18 +57178,18 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -56632,18 +57204,18 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -56658,18 +57230,18 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -56684,18 +57256,18 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -56710,18 +57282,18 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -56732,22 +57304,22 @@
         <v>21</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -56758,22 +57330,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -56784,22 +57356,22 @@
         <v>25</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -56811,21 +57383,21 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -56837,21 +57409,21 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -56863,21 +57435,21 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -56888,22 +57460,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -56914,22 +57486,22 @@
         <v>31</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -56940,22 +57512,22 @@
         <v>32</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -56966,22 +57538,22 @@
         <v>33</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -56992,22 +57564,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -57018,22 +57590,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -57044,22 +57616,22 @@
         <v>36</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -57070,22 +57642,22 @@
         <v>37</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -57100,18 +57672,18 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -57122,22 +57694,22 @@
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -57148,22 +57720,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -57174,22 +57746,22 @@
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -57200,22 +57772,22 @@
         <v>42</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -57230,18 +57802,18 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -57256,18 +57828,18 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -57278,22 +57850,22 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -57308,18 +57880,18 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -57333,21 +57905,21 @@
         <v>8</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -57361,21 +57933,21 @@
         <v>9</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -57390,18 +57962,18 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -57416,18 +57988,18 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -57438,22 +58010,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -57464,22 +58036,22 @@
         <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -57490,22 +58062,22 @@
         <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -57520,18 +58092,18 @@
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -57546,18 +58118,18 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -57572,18 +58144,18 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -57598,18 +58170,18 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -57624,18 +58196,18 @@
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -57646,22 +58218,22 @@
         <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -57676,18 +58248,18 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -57702,18 +58274,18 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -57724,22 +58296,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -57750,22 +58322,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -57780,18 +58352,18 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -57806,18 +58378,18 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -57832,18 +58404,18 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -57858,18 +58430,18 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -57884,18 +58456,18 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -57906,22 +58478,22 @@
         <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -57932,22 +58504,22 @@
         <v>71</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -57958,22 +58530,22 @@
         <v>72</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -57984,22 +58556,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -58010,22 +58582,22 @@
         <v>74</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -58036,22 +58608,22 @@
         <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -58062,22 +58634,22 @@
         <v>76</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -58088,22 +58660,22 @@
         <v>77</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -58114,22 +58686,22 @@
         <v>78</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -58140,22 +58712,22 @@
         <v>79</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -58166,22 +58738,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -58192,22 +58764,22 @@
         <v>81</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -58218,22 +58790,22 @@
         <v>82</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -58244,24 +58816,24 @@
         <v>83</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -58272,22 +58844,22 @@
         <v>84</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -58298,22 +58870,22 @@
         <v>85</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -58324,22 +58896,22 @@
         <v>86</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -58350,22 +58922,22 @@
         <v>87</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -58376,22 +58948,22 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -58402,22 +58974,22 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -58432,18 +59004,18 @@
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -58454,22 +59026,22 @@
         <v>91</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -58484,18 +59056,18 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -58509,21 +59081,21 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -58537,21 +59109,21 @@
         <v>8</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -58562,22 +59134,22 @@
         <v>95</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -58592,18 +59164,18 @@
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -58618,18 +59190,18 @@
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -58644,18 +59216,18 @@
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -58669,21 +59241,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -58698,18 +59270,18 @@
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -58724,18 +59296,18 @@
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -58750,18 +59322,18 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -58776,18 +59348,18 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -58802,18 +59374,18 @@
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -58828,18 +59400,18 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -58854,18 +59426,18 @@
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -58880,18 +59452,18 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -58906,18 +59478,18 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -58932,18 +59504,18 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -58954,22 +59526,22 @@
         <v>112</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -58980,22 +59552,22 @@
         <v>113</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59010,18 +59582,18 @@
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -59036,18 +59608,18 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -59058,22 +59630,22 @@
         <v>116</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -59084,24 +59656,24 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -59112,24 +59684,24 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -59140,22 +59712,22 @@
         <v>119</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -59163,25 +59735,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -59189,25 +59761,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -59215,27 +59787,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -59243,25 +59815,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -59269,25 +59841,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -59295,27 +59867,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -59323,27 +59895,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -59351,25 +59923,25 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -59377,25 +59949,25 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -59403,25 +59975,25 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -59429,25 +60001,25 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -59455,25 +60027,25 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -59481,25 +60053,25 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -59507,25 +60079,25 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -59533,25 +60105,25 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -59559,25 +60131,25 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -59585,25 +60157,25 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -59611,25 +60183,25 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -59637,25 +60209,25 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -59663,25 +60235,25 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -59689,25 +60261,25 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -59715,25 +60287,25 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -59741,25 +60313,25 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -59767,25 +60339,25 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -59793,25 +60365,25 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -59819,25 +60391,25 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -59845,25 +60417,25 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -59871,25 +60443,25 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -59897,25 +60469,25 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -59923,25 +60495,25 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -59949,25 +60521,25 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -59975,25 +60547,25 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60001,25 +60573,25 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -60027,25 +60599,25 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -60053,25 +60625,25 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -60079,25 +60651,25 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -60105,25 +60677,25 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -60131,27 +60703,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -60159,27 +60731,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -60187,27 +60759,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -60215,27 +60787,27 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -60243,27 +60815,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -60271,25 +60843,25 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -60297,25 +60869,25 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -60323,25 +60895,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -60349,25 +60921,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -60375,25 +60947,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -60401,25 +60973,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -60427,25 +60999,25 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -60453,25 +61025,25 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -60479,25 +61051,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -60505,25 +61077,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -60531,25 +61103,25 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -60557,25 +61129,25 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -60583,25 +61155,25 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -60609,27 +61181,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -60637,27 +61209,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -60665,27 +61237,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -60693,25 +61265,25 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -60719,25 +61291,25 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -60745,25 +61317,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -60771,25 +61343,25 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -60797,25 +61369,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -60823,25 +61395,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -60849,25 +61421,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -60875,27 +61447,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -60903,25 +61475,25 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -60929,25 +61501,25 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -60955,27 +61527,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -60983,27 +61555,27 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61011,25 +61583,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -61037,25 +61609,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -61063,27 +61635,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -61091,25 +61663,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -61117,25 +61689,25 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
       </c>
       <c r="D183" s="17"/>
       <c r="E183" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -61143,27 +61715,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -61201,10 +61773,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -61212,11 +61784,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -61225,11 +61797,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -61238,11 +61810,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -61251,11 +61823,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -61264,11 +61836,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -61277,7 +61849,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -61288,11 +61860,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -61301,11 +61873,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -61314,11 +61886,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -61327,11 +61899,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -61340,11 +61912,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -61353,11 +61925,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -61366,11 +61938,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -61379,11 +61951,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -61392,11 +61964,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -61405,11 +61977,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -61418,11 +61990,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -61431,11 +62003,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -61444,11 +62016,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -61457,11 +62029,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -61470,11 +62042,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -61483,11 +62055,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -61496,11 +62068,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -61509,11 +62081,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -61522,11 +62094,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -61535,11 +62107,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -61548,11 +62120,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -61561,11 +62133,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -61574,11 +62146,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -61587,11 +62159,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -61600,11 +62172,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -61613,11 +62185,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -61626,11 +62198,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -61639,11 +62211,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -61652,11 +62224,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -61665,11 +62237,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -61678,11 +62250,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -61691,11 +62263,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -61704,11 +62276,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -61717,11 +62289,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -61730,11 +62302,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -61743,11 +62315,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -61756,11 +62328,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -61769,11 +62341,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -61782,11 +62354,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -61795,11 +62367,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -61808,11 +62380,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -61821,11 +62393,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -61834,11 +62406,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -61847,11 +62419,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -61860,11 +62432,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -61873,11 +62445,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -61886,11 +62458,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -61899,11 +62471,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -61912,11 +62484,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -61925,11 +62497,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -61938,11 +62510,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -61951,11 +62523,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -61964,11 +62536,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -61977,11 +62549,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -61990,11 +62562,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62003,11 +62575,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62016,11 +62588,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -62029,11 +62601,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -62042,11 +62614,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -62055,11 +62627,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -62068,11 +62640,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -62081,11 +62653,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -62094,11 +62666,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -62107,7 +62679,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -62118,7 +62690,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -62129,7 +62701,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -62140,7 +62712,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -62151,7 +62723,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -62162,7 +62734,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -62173,7 +62745,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -62184,7 +62756,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -62195,7 +62767,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -62206,7 +62778,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -62217,7 +62789,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -62228,7 +62800,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -62239,7 +62811,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -62250,7 +62822,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -62261,7 +62833,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -62272,7 +62844,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -62283,7 +62855,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -62294,7 +62866,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -62305,7 +62877,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -62316,7 +62888,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -62327,7 +62899,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -62338,7 +62910,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -62349,7 +62921,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -62360,7 +62932,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -62371,7 +62943,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -62382,7 +62954,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -62393,7 +62965,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -62404,7 +62976,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -62415,7 +62987,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28160" windowHeight="15500"/>
+    <workbookView windowWidth="19900" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="903">
   <si>
     <t>TaskId</t>
   </si>
@@ -450,25 +450,160 @@
     <t>Write Python code to move Axis 10 to the position 10 at a speed of 1000, acceleration of 10000, deceleration of 10000, starting Velocity of 10, and end Velocity of 0, using an Trapezoidal profile.</t>
   </si>
   <si>
+    <t>Write Python code to move Axis 4 to the position -10 and 10 and -10 and 0 at a speed of 1000 using a twoVelTrapezoidal profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position 10 at a speed of 12000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,jerkAccRatio of 1.5,jerkDecRatio of 0.5, using a TimeAcc+AdvancedS profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 7 to the position 550 at a speed of 100000, acceleration of 10000,deceleration of 20000, starting Velocity of 0,and end Velocity of 0, using a cosine profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a SCurve profile; move axis 2 to -202 using Parabolic profile; move axis 3 to 303 using TimeAccAdvancedS profile; move axis 4 to -404 using JerkLimitedFixedVelocityS profile;</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000, acceleration of 10000, deceleration of 10000, starting Velocity of 10, and end Velocity of 0, using Tixing profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to set the input event to monitor if the RemainingDistance of Axis 0's movement is 1000，then move Axis 1 to the position 800 at a speed of 1000; Move Axis 0 to 2000.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position 33 at a speed of 1000 using a TwoVelocitySCurve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 0 to the position 10 at a speed of 1000 , acceleration of 10000,deceleration of 10000, jerkAcc of 1000,jerkDec of 1000,starting Velocity of 0,and end Velocity of 0, using a JerkLimited profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 6 to the position -90 at a speed of 1000, acceleration of 10000,deceleration of -10000, jerkAcc of 1000, jerkDec of 1000,starting Velocity of 0,and end Velocity of 0, using a JerkLimited-AdvancedS profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 0 to the position 10 at a speed of 1000 using a JerkLimitedFixedVelocityT profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to the position 2 and -2 and 2 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000, starting Velocity of 0, and end Velocity of 0, using a Jerklimited scurve acc.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 9 to the position -911 and 911 and 168 and 0  at a speed of 1000 , accTimeMilliseconds of 50ms, decTimeMilliseconds of 50000000000ms, using a TimeAcc with Parabolic profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Python code to set the input event to monitor if the RemainingTime of Axis 2's movement is 1000ms，then move Axis 1 to the position 500 at a speed of 1000. Move Axis 2 to 2000. </t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to the position 120 at a speed of 1000 , acceleration of 10000,deceleration of 10000, starting Velocity of 0,and end Velocity of 20, using an SCurve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to 2000; set the input event to monitor if the RemainingTime of Axis 2's movement is 1000ms，then move Axis 1 to the position 500 at a speed of 1000.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position 310 at a speed of 1000 , accTimeMilliseconds of 50,decTimeMilliseconds of 50,jerkAccRatio of 0.5,jerkDecRatio of 0.5,starting Velocity of 0,and end Velocity of 0, using a ParabolicVelocity profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 5 to the position 550 at a speed of 100000, acceleration of 10000,deceleration of 10000, starting Velocity of 0,and end Velocity of 0, using a Sine profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to set the input event to monitor if the CompletedTime of Axis 3's movement is 300ms，then move Axis 1 to the position 300 at a speed of 1000. Move Axis 3 and 2 to 2000;</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 30 to the position 10 at a speed of 1000 using a TwoVelocityTrapezoidal profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move axis 3 to 303 using TrapezoidalMAT profile; move axis 4 to 404 using ParabolicVelocity profile; move axis 5 to -505 using TimeAccAdvancedS profile;  move axis 6 to -606 using TwoVelocityTrapezoidal profile; move axis 7 to 707 using ConstantDec profile; </t>
+  </si>
+  <si>
+    <t>move axis 10 to -10, 20 and -30 and 40 and 0 respectively using TimeAccAdvancedS; TwoVelocityTrapezoidal; ConstantDec; ParabolicVelocity; and JerkRatioFixedVelocityS profile;</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 30 to the position -0310 and 100 and -40 and 0 at a speed of 10020 , acceleration of 10000, deceleration of 10000, moving average time as 50ms, using an T-MAT profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Python code to set the input event to monitor if the DistanceToTarget of Axis 3's movement is 500，then move Axis 1 to the position -200 at a speed of 1000. Move Axis 3 to 1200; </t>
+  </si>
+  <si>
     <t xml:space="preserve">Write Python code to </t>
   </si>
   <si>
-    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000, acceleration of 10000, deceleration of 10000, starting Velocity of 10, and end Velocity of 0, using Tixing profile.</t>
-  </si>
-  <si>
-    <t>Write Python code to move Axis 2 to the position 120 at a speed of 1000 , acceleration of 10000,deceleration of 10000, starting Velocity of 0,and end Velocity of 20, using an SCurve profile.</t>
+    <t>Write Python code to move Axis 3 to the position 99 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccTrapezoidal profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 0 to the position 10 at starting Velocity of 100,and end Velocity of 0, using a ConstantDec profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 8 to the position -99 at a speed of 1000 , accTimeMilli of 50ms,decTimeMilli of -50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccTrapezoidal profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 4 to the position 144 and then 0 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 30, and end Velocity of 0, using an S profile.</t>
   </si>
   <si>
+    <t>Write Python code to move Axis 22 to the position 120 at a speed of 1000 using a JerkRatioFixedVelocityS profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 7 to the position 99 at a speed of 1000 using a TimeAccJerkRatio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a TimeAccJerkRatio profile; move axis 2 to 202 using JerkRatio profile; move axis 3 to 303 using TrapezoidalMAT profile; move axis 4 to 404 using ParabolicVelocity profile;</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 20 to the position -0210 at a speed of 10020 , acceleration of 10000,deceleration of 10000, moving average time as 50ms, using an TrapezoidalMAT profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 10 and -10 and 1o0 and -1p0 and 0 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccSCurve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a SCurve profile; move axis 2 to 202 using Parabolic profile; move axis 3 to 303 using Trapezoidal profile; move axis 4 to 404 using Sin profile; move axis 5 to 505 using AdvancedS profile.</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 5 to the position 50 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a JerkRatio profile.</t>
   </si>
   <si>
-    <t>Write Python code to move Axis 15 to the position -410 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 0,and end Velocity of 0, using a Parab profile.</t>
+    <t>Write Python code to move Axis 7 to the position -99 at a speed of 1000 using a TwoVelocityJerkRatio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 8 to the position 88 at a speed of 1000 using a TwoVel-JerkRatio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 15 to the position -410 at a speed of 1000, starting Velocity of 0, and end Velocity of 0, using a Parabola-curve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to the position 210 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,using a TimeAccSin profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 11 to the position 110 and -99 and 0 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000, starting Velocity of 0, and end Velocity of 0, using a JerkLimitedSCurve profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a TimeAccJerkRatio profile; move axis 2 to 202 using JerkRatio profile; move axis 3 to 303 using TrapezoidalMAT profile; move axis 4 to 404 using TimeAccTrapezoidal profile; move axis 5 to 505 using JerkRatioFixedVelocityS profile; move axis 6 to 606 using JerkLimitedFixedVelocityT profile; </t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 9 to the position -910 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms, using a TimeAccParabolic profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 9 to the position 90 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a Jerk-Ratio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 1 to the position 10 and -10 and 10 and -10 and 10 and -10 and 10 and -10 and0 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccSCurve profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position -20 and 30 and -40 and 0 at a speed of 1000 , acceleration of 10000,deceleration of 10000, jerkAccRatio of 0.5, jerkDecRatio of 0.5,starting Velocity of 0,and end Velocity of 0, using a Advanced-S profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 6 to the position =60 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000,starting Velocity of 0,and end Velocity of 0, using a JerkLimitedAdvancedS profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 8 to the position 180 at a speed of 1000 , acceleration of 10000,deceleration of 10000,jerkAccRatio of 0.5,jerkDecRatio of 0.5 using a JerkRatioFixedVelocityT profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 8 to the position -580 at a speed of 100000, acceleration of 10000,deceleration of 20000, starting Velocity of 0,and end Velocity of 0, using a sine or cosine profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 18 to the position 99 at a speed of 1000000000000000 using a TimeAccJerkRatio profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 0 to the position -200 at a speed of -1000 , acceleration of 10000,deceleration of 10000, jerkAcc of 1000,jerkDec of 1000,starting Velocity of 0, and end Velocity of 0, using a JerkLimited profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position 10 at a speed of 12000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,jerkAccRatio of 0.5,jerkDecRatio of 0.5, using a TimeAccAdvancedS profile.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 3 to the position 33 at a speed of 1000 using a TwoVelocitySCurve profile, then move Axis 4 to 77 with same profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 5 to the position 10 at a speed of 1000 , acceleration of 10000, deceleration of 10000, starting Velocity of 0,and end Velocity of 0, using a Parabolic profile.</t>
@@ -54552,8 +54687,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -56250,7 +56385,9 @@
         <v>128</v>
       </c>
       <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
+      <c r="D119" s="21">
+        <v>2</v>
+      </c>
       <c r="E119" s="21"/>
       <c r="F119" s="8"/>
     </row>
@@ -56259,10 +56396,12 @@
         <v>119</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
+      <c r="D120" s="21">
+        <v>2</v>
+      </c>
       <c r="E120" s="21"/>
       <c r="F120" s="8"/>
     </row>
@@ -56271,10 +56410,12 @@
         <v>120</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
+      <c r="D121" s="21">
+        <v>2</v>
+      </c>
       <c r="E121" s="21"/>
       <c r="F121" s="8"/>
     </row>
@@ -56283,10 +56424,12 @@
         <v>121</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
+      <c r="D122" s="21">
+        <v>3</v>
+      </c>
       <c r="E122" s="21"/>
       <c r="F122" s="8"/>
     </row>
@@ -56295,7 +56438,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="21">
@@ -56309,10 +56452,12 @@
         <v>123</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
+      <c r="D124" s="21">
+        <v>2</v>
+      </c>
       <c r="E124" s="21"/>
       <c r="F124" s="8"/>
     </row>
@@ -56321,10 +56466,12 @@
         <v>124</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
+      <c r="D125" s="21">
+        <v>1</v>
+      </c>
       <c r="E125" s="21"/>
       <c r="F125" s="8"/>
     </row>
@@ -56333,10 +56480,12 @@
         <v>125</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
+      <c r="D126" s="21">
+        <v>1</v>
+      </c>
       <c r="E126" s="21"/>
       <c r="F126" s="8"/>
     </row>
@@ -56345,10 +56494,12 @@
         <v>126</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="D127" s="21">
+        <v>2</v>
+      </c>
       <c r="E127" s="21"/>
       <c r="F127" s="8"/>
     </row>
@@ -56357,35 +56508,46 @@
         <v>127</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
+      <c r="D128" s="21">
+        <v>2</v>
+      </c>
       <c r="E128" s="21"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" customHeight="1" spans="1:2">
+    <row r="129" customHeight="1" spans="1:4">
       <c r="A129" s="28">
         <v>128</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="D129" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:2">
+    <row r="130" customHeight="1" spans="1:4">
       <c r="A130" s="28">
         <v>129</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="D130" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:2">
+    <row r="131" customHeight="1" spans="1:4">
       <c r="A131" s="28">
         <v>130</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="D131" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
@@ -56393,82 +56555,109 @@
         <v>131</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D132" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:2">
+    <row r="133" customHeight="1" spans="1:4">
       <c r="A133" s="28">
         <v>132</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
+      </c>
+      <c r="D133" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:2">
+    <row r="134" customHeight="1" spans="1:4">
       <c r="A134" s="28">
         <v>133</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>128</v>
+        <v>143</v>
+      </c>
+      <c r="D134" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:2">
+    <row r="135" customHeight="1" spans="1:4">
       <c r="A135" s="28">
         <v>134</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>128</v>
+        <v>144</v>
+      </c>
+      <c r="D135" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:2">
+    <row r="136" customHeight="1" spans="1:4">
       <c r="A136" s="28">
         <v>135</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+      <c r="D136" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:2">
+    <row r="137" customHeight="1" spans="1:4">
       <c r="A137" s="28">
         <v>136</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+      <c r="D137" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:2">
+    <row r="138" customHeight="1" spans="1:4">
       <c r="A138" s="28">
         <v>137</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>128</v>
+        <v>147</v>
+      </c>
+      <c r="D138" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:2">
+    <row r="139" customHeight="1" spans="1:4">
       <c r="A139" s="28">
         <v>138</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>128</v>
+        <v>148</v>
+      </c>
+      <c r="D139" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:2">
+    <row r="140" customHeight="1" spans="1:4">
       <c r="A140" s="28">
         <v>139</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="D140" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:2">
+    <row r="141" customHeight="1" spans="1:4">
       <c r="A141" s="28">
         <v>140</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>128</v>
+        <v>150</v>
+      </c>
+      <c r="D141" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:2">
@@ -56476,15 +56665,18 @@
         <v>141</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:2">
+    <row r="143" customHeight="1" spans="1:4">
       <c r="A143" s="28">
         <v>142</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+      <c r="D143" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:2">
@@ -56492,23 +56684,29 @@
         <v>143</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:2">
+    <row r="145" customHeight="1" spans="1:4">
       <c r="A145" s="28">
         <v>144</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>128</v>
+        <v>153</v>
+      </c>
+      <c r="D145" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:2">
+    <row r="146" customHeight="1" spans="1:4">
       <c r="A146" s="28">
         <v>145</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>128</v>
+        <v>154</v>
+      </c>
+      <c r="D146" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:4">
@@ -56516,42 +56714,54 @@
         <v>146</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D147" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:2">
+    <row r="148" customHeight="1" spans="1:4">
       <c r="A148" s="28">
         <v>147</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>128</v>
+        <v>156</v>
+      </c>
+      <c r="D148" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:2">
+    <row r="149" customHeight="1" spans="1:4">
       <c r="A149" s="28">
         <v>148</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="D149" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:2">
+    <row r="150" customHeight="1" spans="1:4">
       <c r="A150" s="28">
         <v>149</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="D150" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:2">
+    <row r="151" customHeight="1" spans="1:4">
       <c r="A151" s="28">
         <v>150</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="D151" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:2">
@@ -56559,15 +56769,18 @@
         <v>151</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:2">
+    <row r="153" customHeight="1" spans="1:4">
       <c r="A153" s="28">
         <v>152</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>128</v>
+        <v>160</v>
+      </c>
+      <c r="D153" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:2">
@@ -56575,15 +56788,18 @@
         <v>153</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:2">
+    <row r="155" customHeight="1" spans="1:4">
       <c r="A155" s="28">
         <v>154</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>128</v>
+        <v>161</v>
+      </c>
+      <c r="D155" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:4">
@@ -56591,7 +56807,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D156" s="18">
         <v>1</v>
@@ -56602,15 +56818,18 @@
         <v>156</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:2">
+    <row r="158" customHeight="1" spans="1:4">
       <c r="A158" s="28">
         <v>157</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>128</v>
+        <v>163</v>
+      </c>
+      <c r="D158" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:2">
@@ -56618,7 +56837,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:2">
@@ -56626,7 +56845,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:4">
@@ -56634,7 +56853,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="29" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D161" s="18">
         <v>2</v>
@@ -56645,15 +56864,18 @@
         <v>161</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:2">
+    <row r="163" customHeight="1" spans="1:4">
       <c r="A163" s="28">
         <v>162</v>
       </c>
       <c r="B163" s="29" t="s">
-        <v>128</v>
+        <v>166</v>
+      </c>
+      <c r="D163" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:2">
@@ -56661,7 +56883,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:2">
@@ -56669,15 +56891,18 @@
         <v>164</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:2">
+    <row r="166" customHeight="1" spans="1:4">
       <c r="A166" s="28">
         <v>165</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>128</v>
+        <v>167</v>
+      </c>
+      <c r="D166" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:2">
@@ -56685,23 +56910,29 @@
         <v>166</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:2">
+    <row r="168" customHeight="1" spans="1:4">
       <c r="A168" s="28">
         <v>167</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>128</v>
+        <v>168</v>
+      </c>
+      <c r="D168" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:2">
+    <row r="169" customHeight="1" spans="1:4">
       <c r="A169" s="28">
         <v>168</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>128</v>
+        <v>169</v>
+      </c>
+      <c r="D169" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:2">
@@ -56709,7 +56940,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:4">
@@ -56717,7 +56948,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D171" s="18">
         <v>2</v>
@@ -56728,15 +56959,18 @@
         <v>171</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:2">
+    <row r="173" customHeight="1" spans="1:4">
       <c r="A173" s="28">
         <v>172</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>128</v>
+        <v>171</v>
+      </c>
+      <c r="D173" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:2">
@@ -56744,15 +56978,18 @@
         <v>173</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:2">
+    <row r="175" customHeight="1" spans="1:4">
       <c r="A175" s="28">
         <v>174</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>128</v>
+        <v>172</v>
+      </c>
+      <c r="D175" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:2">
@@ -56760,7 +56997,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:2">
@@ -56768,7 +57005,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:2">
@@ -56776,71 +57013,95 @@
         <v>177</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:2">
+    <row r="179" customHeight="1" spans="1:4">
       <c r="A179" s="28">
         <v>178</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>128</v>
+        <v>174</v>
+      </c>
+      <c r="D179" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:2">
+    <row r="180" customHeight="1" spans="1:4">
       <c r="A180" s="28">
         <v>179</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>128</v>
+        <v>175</v>
+      </c>
+      <c r="D180" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:2">
+    <row r="181" customHeight="1" spans="1:4">
       <c r="A181" s="28">
         <v>180</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>128</v>
+        <v>153</v>
+      </c>
+      <c r="D181" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:2">
+    <row r="182" customHeight="1" spans="1:4">
       <c r="A182" s="28">
         <v>181</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>128</v>
+        <v>176</v>
+      </c>
+      <c r="D182" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:2">
+    <row r="183" customHeight="1" spans="1:4">
       <c r="A183" s="28">
         <v>182</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>128</v>
+        <v>166</v>
+      </c>
+      <c r="D183" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:2">
+    <row r="184" customHeight="1" spans="1:4">
       <c r="A184" s="28">
         <v>183</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>128</v>
+        <v>177</v>
+      </c>
+      <c r="D184" s="18">
+        <v>2</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:2">
+    <row r="185" customHeight="1" spans="1:4">
       <c r="A185" s="28">
         <v>184</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>128</v>
+        <v>178</v>
+      </c>
+      <c r="D185" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:2">
+    <row r="186" customHeight="1" spans="1:4">
       <c r="A186" s="28">
         <v>185</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>128</v>
+        <v>179</v>
+      </c>
+      <c r="D186" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:4">
@@ -56848,7 +57109,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D187" s="18">
         <v>1</v>
@@ -56908,28 +57169,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -56944,18 +57205,18 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -56970,18 +57231,18 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56996,18 +57257,18 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -57022,18 +57283,18 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57048,18 +57309,18 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -57074,18 +57335,18 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57100,18 +57361,18 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57119,25 +57380,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C9" s="17">
         <v>8</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -57152,18 +57413,18 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57178,18 +57439,18 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -57204,18 +57465,18 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -57230,18 +57491,18 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -57256,18 +57517,18 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -57282,18 +57543,18 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -57304,22 +57565,22 @@
         <v>21</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -57330,22 +57591,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -57356,22 +57617,22 @@
         <v>25</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -57383,21 +57644,21 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -57409,21 +57670,21 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -57435,21 +57696,21 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -57460,22 +57721,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -57486,22 +57747,22 @@
         <v>31</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -57512,22 +57773,22 @@
         <v>32</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -57538,22 +57799,22 @@
         <v>33</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -57564,22 +57825,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -57590,22 +57851,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -57616,22 +57877,22 @@
         <v>36</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -57642,22 +57903,22 @@
         <v>37</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -57672,18 +57933,18 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -57694,22 +57955,22 @@
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -57720,22 +57981,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -57746,22 +58007,22 @@
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -57772,22 +58033,22 @@
         <v>42</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -57802,18 +58063,18 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -57828,18 +58089,18 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -57850,22 +58111,22 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -57880,18 +58141,18 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -57905,21 +58166,21 @@
         <v>8</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -57933,21 +58194,21 @@
         <v>9</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="F40" s="13" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -57962,18 +58223,18 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -57988,18 +58249,18 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -58010,22 +58271,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -58036,22 +58297,22 @@
         <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -58062,22 +58323,22 @@
         <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -58092,18 +58353,18 @@
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -58118,18 +58379,18 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -58144,18 +58405,18 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -58170,18 +58431,18 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -58196,18 +58457,18 @@
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -58218,22 +58479,22 @@
         <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -58248,18 +58509,18 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -58274,18 +58535,18 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -58296,22 +58557,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -58322,22 +58583,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -58352,18 +58613,18 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -58378,18 +58639,18 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -58404,18 +58665,18 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -58430,18 +58691,18 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -58456,18 +58717,18 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -58478,22 +58739,22 @@
         <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -58504,22 +58765,22 @@
         <v>71</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -58530,22 +58791,22 @@
         <v>72</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -58556,22 +58817,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -58582,22 +58843,22 @@
         <v>74</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -58608,22 +58869,22 @@
         <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -58634,22 +58895,22 @@
         <v>76</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -58660,22 +58921,22 @@
         <v>77</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -58686,22 +58947,22 @@
         <v>78</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -58712,22 +58973,22 @@
         <v>79</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -58738,22 +58999,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -58764,22 +59025,22 @@
         <v>81</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -58790,22 +59051,22 @@
         <v>82</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -58816,24 +59077,24 @@
         <v>83</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -58844,22 +59105,22 @@
         <v>84</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -58870,22 +59131,22 @@
         <v>85</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -58896,22 +59157,22 @@
         <v>86</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -58922,22 +59183,22 @@
         <v>87</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -58948,22 +59209,22 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -58974,22 +59235,22 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -59004,18 +59265,18 @@
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -59026,22 +59287,22 @@
         <v>91</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -59056,18 +59317,18 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -59081,21 +59342,21 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -59109,21 +59370,21 @@
         <v>8</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -59134,22 +59395,22 @@
         <v>95</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -59164,18 +59425,18 @@
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -59190,18 +59451,18 @@
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -59216,18 +59477,18 @@
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -59241,21 +59502,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="F90" s="13" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -59270,18 +59531,18 @@
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -59296,18 +59557,18 @@
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -59322,18 +59583,18 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -59348,18 +59609,18 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -59374,18 +59635,18 @@
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -59400,18 +59661,18 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -59426,18 +59687,18 @@
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -59452,18 +59713,18 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -59478,18 +59739,18 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -59504,18 +59765,18 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -59526,22 +59787,22 @@
         <v>112</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -59552,22 +59813,22 @@
         <v>113</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59582,18 +59843,18 @@
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -59608,18 +59869,18 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -59630,22 +59891,22 @@
         <v>116</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -59656,24 +59917,24 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -59684,24 +59945,24 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -59712,22 +59973,22 @@
         <v>119</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -59735,25 +59996,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -59761,25 +60022,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -59787,27 +60048,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -59815,25 +60076,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -59841,25 +60102,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -59867,27 +60128,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -59895,27 +60156,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -59923,25 +60184,25 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -59949,25 +60210,25 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -59975,25 +60236,25 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -60001,25 +60262,25 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -60027,25 +60288,25 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -60053,25 +60314,25 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -60079,25 +60340,25 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -60105,25 +60366,25 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -60131,25 +60392,25 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -60157,25 +60418,25 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -60183,25 +60444,25 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -60209,25 +60470,25 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>515</v>
+        <v>560</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -60235,25 +60496,25 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -60261,25 +60522,25 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -60287,25 +60548,25 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -60313,25 +60574,25 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -60339,25 +60600,25 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -60365,25 +60626,25 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -60391,25 +60652,25 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>538</v>
+        <v>583</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>538</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -60417,25 +60678,25 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -60443,25 +60704,25 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -60469,25 +60730,25 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>547</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -60495,25 +60756,25 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>548</v>
+        <v>593</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>550</v>
+        <v>595</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -60521,25 +60782,25 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -60547,25 +60808,25 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>554</v>
+        <v>599</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60573,25 +60834,25 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -60599,25 +60860,25 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -60625,25 +60886,25 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>567</v>
+        <v>612</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -60651,25 +60912,25 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>571</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -60677,25 +60938,25 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -60703,27 +60964,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -60731,27 +60992,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -60759,27 +61020,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -60787,27 +61048,27 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -60815,27 +61076,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -60843,25 +61104,25 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -60869,25 +61130,25 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>598</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -60895,25 +61156,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>602</v>
+        <v>647</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -60921,25 +61182,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -60947,25 +61208,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>611</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -60973,25 +61234,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -60999,25 +61260,25 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -61025,25 +61286,25 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -61051,25 +61312,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -61077,25 +61338,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -61103,25 +61364,25 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -61129,25 +61390,25 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -61155,25 +61416,25 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -61181,27 +61442,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -61209,27 +61470,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -61237,27 +61498,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -61265,25 +61526,25 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -61291,25 +61552,25 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -61317,25 +61578,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -61343,25 +61604,25 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -61369,25 +61630,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -61395,25 +61656,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -61421,25 +61682,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -61447,27 +61708,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -61475,25 +61736,25 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="16" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -61501,25 +61762,25 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -61527,27 +61788,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -61555,27 +61816,27 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61583,25 +61844,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>695</v>
+        <v>740</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -61609,25 +61870,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -61635,27 +61896,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>707</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -61663,25 +61924,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -61689,25 +61950,25 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
       </c>
       <c r="D183" s="17"/>
       <c r="E183" s="16" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>715</v>
+        <v>760</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>715</v>
+        <v>760</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -61715,27 +61976,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -61773,10 +62034,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>720</v>
+        <v>765</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -61784,11 +62045,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -61797,11 +62058,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>725</v>
+        <v>770</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -61810,11 +62071,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>726</v>
+        <v>771</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>727</v>
+        <v>772</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -61823,11 +62084,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>729</v>
+        <v>774</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -61836,11 +62097,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>730</v>
+        <v>775</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -61849,7 +62110,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -61860,11 +62121,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -61873,11 +62134,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>736</v>
+        <v>781</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -61886,11 +62147,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -61899,11 +62160,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>740</v>
+        <v>785</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -61912,11 +62173,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -61925,11 +62186,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -61938,11 +62199,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>745</v>
+        <v>790</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -61951,11 +62212,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -61964,11 +62225,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -61977,11 +62238,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>751</v>
+        <v>796</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -61990,11 +62251,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>752</v>
+        <v>797</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -62003,11 +62264,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -62016,11 +62277,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>756</v>
+        <v>801</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -62029,11 +62290,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>758</v>
+        <v>803</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -62042,11 +62303,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -62055,11 +62316,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -62068,11 +62329,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>763</v>
+        <v>808</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -62081,11 +62342,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>764</v>
+        <v>809</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -62094,11 +62355,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>766</v>
+        <v>811</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>767</v>
+        <v>812</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -62107,11 +62368,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>769</v>
+        <v>814</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -62120,11 +62381,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>770</v>
+        <v>815</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -62133,11 +62394,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -62146,11 +62407,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>773</v>
+        <v>818</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -62159,11 +62420,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -62172,11 +62433,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -62185,11 +62446,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>777</v>
+        <v>822</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -62198,11 +62459,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -62211,11 +62472,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>781</v>
+        <v>826</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -62224,11 +62485,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -62237,11 +62498,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>785</v>
+        <v>830</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -62250,11 +62511,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -62263,11 +62524,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -62276,11 +62537,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -62289,11 +62550,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>789</v>
+        <v>834</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -62302,11 +62563,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>790</v>
+        <v>835</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -62315,11 +62576,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>791</v>
+        <v>836</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -62328,11 +62589,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -62341,11 +62602,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>796</v>
+        <v>841</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -62354,11 +62615,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>798</v>
+        <v>843</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -62367,11 +62628,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>798</v>
+        <v>843</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -62380,11 +62641,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>798</v>
+        <v>843</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -62393,11 +62654,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>801</v>
+        <v>846</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -62406,11 +62667,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>803</v>
+        <v>848</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -62419,11 +62680,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>804</v>
+        <v>849</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -62432,11 +62693,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>806</v>
+        <v>851</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -62445,11 +62706,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>807</v>
+        <v>852</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -62458,11 +62719,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>808</v>
+        <v>853</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -62471,11 +62732,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -62484,11 +62745,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -62497,11 +62758,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -62510,11 +62771,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -62523,11 +62784,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -62536,11 +62797,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>814</v>
+        <v>859</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -62549,11 +62810,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>815</v>
+        <v>860</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -62562,11 +62823,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>816</v>
+        <v>861</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>817</v>
+        <v>862</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62575,11 +62836,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>818</v>
+        <v>863</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62588,11 +62849,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>819</v>
+        <v>864</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -62601,11 +62862,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>821</v>
+        <v>866</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>822</v>
+        <v>867</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -62614,11 +62875,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>823</v>
+        <v>868</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>822</v>
+        <v>867</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -62627,11 +62888,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>824</v>
+        <v>869</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>822</v>
+        <v>867</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -62640,11 +62901,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -62653,11 +62914,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>826</v>
+        <v>871</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -62666,11 +62927,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>828</v>
+        <v>873</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -62679,7 +62940,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -62690,7 +62951,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>830</v>
+        <v>875</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -62701,7 +62962,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -62712,7 +62973,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>832</v>
+        <v>877</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -62723,7 +62984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>833</v>
+        <v>878</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -62734,7 +62995,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -62745,7 +63006,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -62756,7 +63017,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>836</v>
+        <v>881</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -62767,7 +63028,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -62778,7 +63039,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -62789,7 +63050,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>839</v>
+        <v>884</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -62800,7 +63061,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -62811,7 +63072,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>841</v>
+        <v>886</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -62822,7 +63083,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>842</v>
+        <v>887</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -62833,7 +63094,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -62844,7 +63105,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -62855,7 +63116,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -62866,7 +63127,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -62877,7 +63138,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -62888,7 +63149,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -62899,7 +63160,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -62910,7 +63171,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -62921,7 +63182,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -62932,7 +63193,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>852</v>
+        <v>897</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -62943,7 +63204,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -62954,7 +63215,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -62965,7 +63226,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -62976,7 +63237,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -62987,7 +63248,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19900" windowHeight="15500"/>
+    <workbookView windowWidth="25620" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="918">
   <si>
     <t>TaskId</t>
   </si>
@@ -477,7 +477,7 @@
     <t>Write Python code to move Axis 6 to the position -90 at a speed of 1000, acceleration of 10000,deceleration of -10000, jerkAcc of 1000, jerkDec of 1000,starting Velocity of 0,and end Velocity of 0, using a JerkLimited-AdvancedS profile.</t>
   </si>
   <si>
-    <t>Write Python code to move Axis 0 to the position 10 at a speed of 1000 using a JerkLimitedFixedVelocityT profile.</t>
+    <t>Write Python code to move Axis 0 to the position 130 at a speed of 1000 using a JerkLimitedFixedVelocityT profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 2 to the position 2 and -2 and 2 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000, starting Velocity of 0, and end Velocity of 0, using a Jerklimited scurve acc.</t>
@@ -519,12 +519,15 @@
     <t xml:space="preserve">Write Python code to set the input event to monitor if the DistanceToTarget of Axis 3's movement is 500，then move Axis 1 to the position -200 at a speed of 1000. Move Axis 3 to 1200; </t>
   </si>
   <si>
-    <t xml:space="preserve">Write Python code to </t>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -1000 with a velocity of 600, when the remaining distance is 500, trigger Axis 10 to move to -500 with a velocity of 1000; Then set an event that triggers to start the movement of Axis 2 to -200 when Axis 10 moves to the position of 100;</t>
   </si>
   <si>
     <t>Write Python code to move Axis 3 to the position 99 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccTrapezoidal profile.</t>
   </si>
   <si>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -1000 with a velocity of 600, when the remaining distance is 500, trigger Axis 10 to move to -300 with a velocity of 1000; Then set an event that triggers to start the movement of Axis 2 to -200 when Axis 10 moves to the position of 100;</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 0 to the position 10 at starting Velocity of 100,and end Velocity of 0, using a ConstantDec profile.</t>
   </si>
   <si>
@@ -546,52 +549,94 @@
     <t>Write Python code to move Axis 20 to the position -0210 at a speed of 10020 , acceleration of 10000,deceleration of 10000, moving average time as 50ms, using an TrapezoidalMAT profile.</t>
   </si>
   <si>
+    <t>Write Python code to set an event that triggers the output to stop the movement of Axis 0 when Axis 0 moves to the position of 1000. Move Axis 0 to 2200. Move Axis 0 to the position 2000 at a speed of 1000 using a JerkLimitedFixedVelocityT profile.</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 1 to the position 10 and -10 and 1o0 and -1p0 and 0 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccSCurve profile.</t>
   </si>
   <si>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -800 with a velocity of 600, when the remaining distance is 400, trigger Axis 10 to move to 300 with a velocity of 1000, don't use wait(axis); Then set an event that triggers to start the movement of Axis 12 to -50 when Axis 10 moves to the position of 100, use wait(axis);</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a SCurve profile; move axis 2 to 202 using Parabolic profile; move axis 3 to 303 using Trapezoidal profile; move axis 4 to 404 using Sin profile; move axis 5 to 505 using AdvancedS profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 5 to the position 50 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a JerkRatio profile.</t>
   </si>
   <si>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -800 with a velocity of 600, when the distance to target is 200, trigger Axis 10 to move to 300 with a velocity of 1000; Then set an event that triggers to start the movement of Axis 12 to -50 when Axis 10 moves to the position of 100, use wait(axis)</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 7 to the position -99 at a speed of 1000 using a TwoVelocityJerkRatio profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 8 to the position 88 at a speed of 1000 using a TwoVel-JerkRatio profile.</t>
   </si>
   <si>
+    <t>Write Python code to move axis 5 to 200. then get the Axis status for Axis 5. Get the axis status of Pos Cmd, if it is 200, then move to 50.</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 15 to the position -410 at a speed of 1000, starting Velocity of 0, and end Velocity of 0, using a Parabola-curve profile.</t>
   </si>
   <si>
+    <t>Write Python code to move axis 4 to 300. then get the Axis status for Axis 4. Get the axis status of Actual Pos, if it is 200, then move to 50, otherwise move to -50. Then move Axis 6 to the position 111 at a speed of 1000 using a TwoVelocityJerkRatio profile.</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 2 to the position 210 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,using a TimeAccSin profile.</t>
   </si>
   <si>
+    <t>Write Python code to jog Axis 3 for 0.5s seconds with a velocity of 90. then get the Axis status for Axis 3. Get the axis status of Actual Pos, if it is more than 20, then move it to 150, otherwise move to -150. Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 0) with a velocity of 1000.</t>
+  </si>
+  <si>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position 800 with a velocity of 600, when the distance to target is 200, trigger Axis 10 to move to 300 with a velocity of 1000, don't use axis wait; Then set an event that triggers to start the movement of Axis 12 to 80 when Axis 10 moves to the position of 400, use wait(axis);</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 11 to the position 110 and -99 and 0 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000, starting Velocity of 0, and end Velocity of 0, using a JerkLimitedSCurve profile.</t>
   </si>
   <si>
+    <t>Write Python code to execute a PVT command for Axis 1 with points in the format (Position, Velocity, Time): (0, 0, 0), (50, 1000, 100), (100, 2000, 200), (200, 3000, 300), (300, 1000, 400), (200, 0, 500). Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 100) with a velocity of 1000. start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, 10), (-20, -20), (30, 30), (-40, -40), (50, 50), (-60, -60), (70, 70), (-80, -80).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a TimeAccJerkRatio profile; move axis 2 to 202 using JerkRatio profile; move axis 3 to 303 using TrapezoidalMAT profile; move axis 4 to 404 using TimeAccTrapezoidal profile; move axis 5 to 505 using JerkRatioFixedVelocityS profile; move axis 6 to 606 using JerkLimitedFixedVelocityT profile; </t>
   </si>
   <si>
     <t>Write Python code to move Axis 9 to the position -910 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms, using a TimeAccParabolic profile.</t>
   </si>
   <si>
+    <t>Write Python code to move axis 5 to 200. then get the Axis status for Axis 5. Get the axis status of Pos Cmd, if it is 200, then move to 50. Then move Axis 8 to the position 99 at a speed of 1000 using a TimeAccJerkRatio profile.</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 9 to the position 90 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a Jerk-Ratio profile.</t>
   </si>
   <si>
+    <t xml:space="preserve">Write Python code to get the Axis status of Axis 1. Move axis 1 to 101. Get the status of position command and actual position, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 1 to the position 10 and -10 and 10 and -10 and 10 and -10 and 10 and -10 and0 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccSCurve profile.</t>
   </si>
   <si>
+    <t xml:space="preserve">Write Python code to Move axis 12 to 101. Get the status of Actual Torque and pos cmd, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 3 to the position -20 and 30 and -40 and 0 at a speed of 1000 , acceleration of 10000,deceleration of 10000, jerkAccRatio of 0.5, jerkDecRatio of 0.5,starting Velocity of 0,and end Velocity of 0, using a Advanced-S profile.</t>
   </si>
   <si>
+    <t>Write Python code to set an event that trigger to start the movement of Axis 12 to 80 when Axis 10 moves to the position of 400; then execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position 800 with a velocity of 600, when the distance to target is 200, trigger Axis 10 to move to 300 with a velocity of 1000;</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 6 to the position =60 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000,starting Velocity of 0,and end Velocity of 0, using a JerkLimitedAdvancedS profile.</t>
   </si>
   <si>
+    <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -800 with a velocity of 600, when the DistanceToTarget is 200, trigger Axis 10 to move to 300 with a velocity of 1000; Then set an event that triggers to start the movement of Axis 12 to -50 when Axis 10 moves to the position of 100, use wait(axis)</t>
+  </si>
+  <si>
     <t>Write Python code to move Axis 8 to the position 180 at a speed of 1000 , acceleration of 10000,deceleration of 10000,jerkAccRatio of 0.5,jerkDecRatio of 0.5 using a JerkRatioFixedVelocityT profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 8 to the position -580 at a speed of 100000, acceleration of 10000,deceleration of 20000, starting Velocity of 0,and end Velocity of 0, using a sine or cosine profile.</t>
+  </si>
+  <si>
+    <t>Move Axis 3 to the position 30 and 0 and 30 and 0 at starting Velocity of 100, and end Velocity of 0, using a ConstantDec profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 18 to the position 99 at a speed of 1000000000000000 using a TimeAccJerkRatio profile.</t>
@@ -54245,7 +54290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -54301,6 +54346,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -54308,7 +54356,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -54687,8 +54735,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -54696,28 +54744,29 @@
     <col min="1" max="1" width="9" style="18" customWidth="1"/>
     <col min="2" max="2" width="124.913461538462" style="18" customWidth="1"/>
     <col min="3" max="3" width="18.6923076923077" style="18" customWidth="1"/>
-    <col min="4" max="5" width="13.3557692307692" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.75" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="9.16346153846154" style="19"/>
+    <col min="4" max="4" width="13.3557692307692" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.3557692307692" style="18" customWidth="1"/>
+    <col min="6" max="6" width="65.75" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9.16346153846154" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -54725,11 +54774,11 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="21"/>
-      <c r="D2" s="21">
+      <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="21"/>
@@ -54739,15 +54788,15 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -54755,11 +54804,11 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
       <c r="E4" s="21"/>
@@ -54769,11 +54818,11 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>2</v>
       </c>
       <c r="E5" s="21"/>
@@ -54783,11 +54832,11 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>2</v>
       </c>
       <c r="E6" s="21"/>
@@ -54797,11 +54846,11 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
       <c r="E7" s="21"/>
@@ -54811,11 +54860,11 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>2</v>
       </c>
       <c r="E8" s="21"/>
@@ -54825,11 +54874,11 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
       <c r="E9" s="21"/>
@@ -54839,11 +54888,11 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>2</v>
       </c>
       <c r="E10" s="21"/>
@@ -54853,11 +54902,11 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>2</v>
       </c>
       <c r="E11" s="21"/>
@@ -54867,11 +54916,11 @@
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="21"/>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
       <c r="E12" s="21">
@@ -54883,11 +54932,11 @@
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>2</v>
       </c>
       <c r="E13" s="21">
@@ -54899,11 +54948,11 @@
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>2</v>
       </c>
       <c r="E14" s="21">
@@ -54912,14 +54961,14 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="23">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>1</v>
       </c>
       <c r="E15" s="21">
@@ -54928,34 +54977,34 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="24">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>1</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="24">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>2</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -54963,57 +55012,57 @@
       <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>2</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="23">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>1</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>2</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="23">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -55021,11 +55070,11 @@
       <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>1</v>
       </c>
       <c r="E22" s="21"/>
@@ -55035,11 +55084,11 @@
       <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>2</v>
       </c>
       <c r="E23" s="21"/>
@@ -55049,11 +55098,11 @@
       <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="21">
+      <c r="C24" s="26"/>
+      <c r="D24" s="22">
         <v>1</v>
       </c>
       <c r="E24" s="21"/>
@@ -55063,11 +55112,11 @@
       <c r="A25" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>2</v>
       </c>
       <c r="E25" s="21"/>
@@ -55077,11 +55126,11 @@
       <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>2</v>
       </c>
       <c r="E26" s="21"/>
@@ -55091,11 +55140,11 @@
       <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>1</v>
       </c>
       <c r="E27" s="21"/>
@@ -55105,11 +55154,11 @@
       <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>2</v>
       </c>
       <c r="E28" s="21"/>
@@ -55119,11 +55168,11 @@
       <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="21">
+      <c r="D29" s="22">
         <v>1</v>
       </c>
       <c r="E29" s="21"/>
@@ -55133,11 +55182,11 @@
       <c r="A30" s="21">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <v>1</v>
       </c>
       <c r="E30" s="21"/>
@@ -55147,11 +55196,11 @@
       <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="21">
+      <c r="D31" s="22">
         <v>1</v>
       </c>
       <c r="E31" s="21"/>
@@ -55161,11 +55210,11 @@
       <c r="A32" s="21">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <v>1</v>
       </c>
       <c r="E32" s="21"/>
@@ -55175,11 +55224,11 @@
       <c r="A33" s="21">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="21">
+      <c r="D33" s="22">
         <v>2</v>
       </c>
       <c r="E33" s="21"/>
@@ -55189,11 +55238,11 @@
       <c r="A34" s="21">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="21">
+      <c r="D34" s="22">
         <v>1</v>
       </c>
       <c r="E34" s="21"/>
@@ -55203,11 +55252,11 @@
       <c r="A35" s="21">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="21">
+      <c r="D35" s="22">
         <v>1</v>
       </c>
       <c r="E35" s="21"/>
@@ -55217,11 +55266,11 @@
       <c r="A36" s="21">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="21">
+      <c r="D36" s="22">
         <v>2</v>
       </c>
       <c r="E36" s="21"/>
@@ -55231,11 +55280,11 @@
       <c r="A37" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="21">
+      <c r="D37" s="22">
         <v>1</v>
       </c>
       <c r="E37" s="21"/>
@@ -55245,11 +55294,11 @@
       <c r="A38" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>2</v>
       </c>
       <c r="E38" s="21"/>
@@ -55259,11 +55308,11 @@
       <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>1</v>
       </c>
       <c r="E39" s="21"/>
@@ -55273,11 +55322,11 @@
       <c r="A40" s="21">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>2</v>
       </c>
       <c r="E40" s="21"/>
@@ -55287,11 +55336,11 @@
       <c r="A41" s="21">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>1</v>
       </c>
       <c r="E41" s="21"/>
@@ -55301,53 +55350,53 @@
       <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="21"/>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>2</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="24">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="21"/>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>1</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="24">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="21"/>
-      <c r="D44" s="21">
+      <c r="D44" s="22">
         <v>1</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="24">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <v>2</v>
       </c>
       <c r="E45" s="21"/>
@@ -55357,11 +55406,11 @@
       <c r="A46" s="21">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="21">
+      <c r="D46" s="22">
         <v>1</v>
       </c>
       <c r="E46" s="21"/>
@@ -55371,11 +55420,11 @@
       <c r="A47" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="21"/>
-      <c r="D47" s="21">
+      <c r="D47" s="22">
         <v>2</v>
       </c>
       <c r="E47" s="21"/>
@@ -55385,11 +55434,11 @@
       <c r="A48" s="21">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="21">
+      <c r="D48" s="22">
         <v>2</v>
       </c>
       <c r="E48" s="21"/>
@@ -55399,11 +55448,11 @@
       <c r="A49" s="21">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="21">
+      <c r="D49" s="22">
         <v>1</v>
       </c>
       <c r="E49" s="21"/>
@@ -55413,11 +55462,11 @@
       <c r="A50" s="21">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="21"/>
-      <c r="D50" s="21">
+      <c r="D50" s="22">
         <v>1</v>
       </c>
       <c r="E50" s="21"/>
@@ -55427,11 +55476,11 @@
       <c r="A51" s="21">
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="21"/>
-      <c r="D51" s="21">
+      <c r="D51" s="22">
         <v>1</v>
       </c>
       <c r="E51" s="21"/>
@@ -55441,11 +55490,11 @@
       <c r="A52" s="21">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="21">
+      <c r="D52" s="22">
         <v>1</v>
       </c>
       <c r="E52" s="21"/>
@@ -55455,11 +55504,11 @@
       <c r="A53" s="21">
         <v>52</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="21">
+      <c r="D53" s="22">
         <v>2</v>
       </c>
       <c r="E53" s="21"/>
@@ -55469,11 +55518,11 @@
       <c r="A54" s="21">
         <v>53</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="21"/>
-      <c r="D54" s="21">
+      <c r="D54" s="22">
         <v>1</v>
       </c>
       <c r="E54" s="21"/>
@@ -55483,11 +55532,11 @@
       <c r="A55" s="21">
         <v>54</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="21"/>
-      <c r="D55" s="21">
+      <c r="D55" s="22">
         <v>2</v>
       </c>
       <c r="E55" s="21"/>
@@ -55497,11 +55546,11 @@
       <c r="A56" s="21">
         <v>55</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="21">
+      <c r="D56" s="22">
         <v>1</v>
       </c>
       <c r="E56" s="21"/>
@@ -55511,11 +55560,11 @@
       <c r="A57" s="21">
         <v>56</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="21"/>
-      <c r="D57" s="21">
+      <c r="D57" s="22">
         <v>1</v>
       </c>
       <c r="E57" s="21"/>
@@ -55525,11 +55574,11 @@
       <c r="A58" s="21">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="21"/>
-      <c r="D58" s="21">
+      <c r="D58" s="22">
         <v>1</v>
       </c>
       <c r="E58" s="21"/>
@@ -55539,15 +55588,15 @@
       <c r="A59" s="21">
         <v>58</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="21"/>
-      <c r="D59" s="21">
+      <c r="D59" s="22">
         <v>1</v>
       </c>
       <c r="E59" s="21"/>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -55555,11 +55604,11 @@
       <c r="A60" s="21">
         <v>59</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="21">
+      <c r="D60" s="22">
         <v>1</v>
       </c>
       <c r="E60" s="21"/>
@@ -55569,11 +55618,11 @@
       <c r="A61" s="21">
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="21">
+      <c r="D61" s="22">
         <v>2</v>
       </c>
       <c r="E61" s="21"/>
@@ -55583,11 +55632,11 @@
       <c r="A62" s="21">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="21"/>
-      <c r="D62" s="21">
+      <c r="D62" s="22">
         <v>1</v>
       </c>
       <c r="E62" s="21"/>
@@ -55597,11 +55646,11 @@
       <c r="A63" s="21">
         <v>62</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="21"/>
-      <c r="D63" s="21">
+      <c r="D63" s="22">
         <v>1</v>
       </c>
       <c r="E63" s="21"/>
@@ -55611,11 +55660,11 @@
       <c r="A64" s="21">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="21"/>
-      <c r="D64" s="21">
+      <c r="D64" s="22">
         <v>1</v>
       </c>
       <c r="E64" s="21"/>
@@ -55625,11 +55674,11 @@
       <c r="A65" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="21"/>
-      <c r="D65" s="21">
+      <c r="D65" s="22">
         <v>1</v>
       </c>
       <c r="E65" s="21"/>
@@ -55639,11 +55688,11 @@
       <c r="A66" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="21"/>
-      <c r="D66" s="21">
+      <c r="D66" s="22">
         <v>1</v>
       </c>
       <c r="E66" s="21"/>
@@ -55653,11 +55702,11 @@
       <c r="A67" s="21">
         <v>66</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="21"/>
-      <c r="D67" s="21">
+      <c r="D67" s="22">
         <v>1</v>
       </c>
       <c r="E67" s="21"/>
@@ -55667,11 +55716,11 @@
       <c r="A68" s="21">
         <v>67</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="21"/>
-      <c r="D68" s="21">
+      <c r="D68" s="22">
         <v>1</v>
       </c>
       <c r="E68" s="21"/>
@@ -55681,11 +55730,11 @@
       <c r="A69" s="21">
         <v>68</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="21"/>
-      <c r="D69" s="21">
+      <c r="D69" s="22">
         <v>1</v>
       </c>
       <c r="E69" s="21"/>
@@ -55695,11 +55744,11 @@
       <c r="A70" s="21">
         <v>69</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="21"/>
-      <c r="D70" s="21">
+      <c r="D70" s="22">
         <v>1</v>
       </c>
       <c r="E70" s="21"/>
@@ -55709,11 +55758,11 @@
       <c r="A71" s="21">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="21"/>
-      <c r="D71" s="21">
+      <c r="D71" s="22">
         <v>1</v>
       </c>
       <c r="E71" s="21"/>
@@ -55723,11 +55772,11 @@
       <c r="A72" s="21">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="21"/>
-      <c r="D72" s="21">
+      <c r="D72" s="22">
         <v>1</v>
       </c>
       <c r="E72" s="21"/>
@@ -55737,11 +55786,11 @@
       <c r="A73" s="21">
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="21"/>
-      <c r="D73" s="21">
+      <c r="D73" s="22">
         <v>1</v>
       </c>
       <c r="E73" s="21"/>
@@ -55751,11 +55800,11 @@
       <c r="A74" s="21">
         <v>73</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="21"/>
-      <c r="D74" s="21">
+      <c r="D74" s="22">
         <v>1</v>
       </c>
       <c r="E74" s="21"/>
@@ -55765,11 +55814,11 @@
       <c r="A75" s="21">
         <v>74</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="21"/>
-      <c r="D75" s="21">
+      <c r="D75" s="22">
         <v>1</v>
       </c>
       <c r="E75" s="21"/>
@@ -55779,11 +55828,11 @@
       <c r="A76" s="21">
         <v>75</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="21"/>
-      <c r="D76" s="21">
+      <c r="D76" s="22">
         <v>1</v>
       </c>
       <c r="E76" s="21"/>
@@ -55793,11 +55842,11 @@
       <c r="A77" s="21">
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="21"/>
-      <c r="D77" s="21">
+      <c r="D77" s="22">
         <v>1</v>
       </c>
       <c r="E77" s="21"/>
@@ -55807,11 +55856,11 @@
       <c r="A78" s="21">
         <v>77</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="21"/>
-      <c r="D78" s="21">
+      <c r="D78" s="22">
         <v>1</v>
       </c>
       <c r="E78" s="21"/>
@@ -55821,11 +55870,11 @@
       <c r="A79" s="21">
         <v>78</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="21"/>
-      <c r="D79" s="21">
+      <c r="D79" s="22">
         <v>1</v>
       </c>
       <c r="E79" s="21"/>
@@ -55835,11 +55884,11 @@
       <c r="A80" s="21">
         <v>79</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="21" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="21"/>
-      <c r="D80" s="21">
+      <c r="D80" s="22">
         <v>1</v>
       </c>
       <c r="E80" s="21"/>
@@ -55849,11 +55898,11 @@
       <c r="A81" s="21">
         <v>80</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="21"/>
-      <c r="D81" s="21">
+      <c r="D81" s="22">
         <v>1</v>
       </c>
       <c r="E81" s="21"/>
@@ -55863,11 +55912,11 @@
       <c r="A82" s="21">
         <v>81</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="21"/>
-      <c r="D82" s="21">
+      <c r="D82" s="22">
         <v>1</v>
       </c>
       <c r="E82" s="21"/>
@@ -55877,11 +55926,11 @@
       <c r="A83" s="21">
         <v>82</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="21"/>
-      <c r="D83" s="21">
+      <c r="D83" s="22">
         <v>1</v>
       </c>
       <c r="E83" s="21"/>
@@ -55891,11 +55940,11 @@
       <c r="A84" s="21">
         <v>83</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="21"/>
-      <c r="D84" s="21">
+      <c r="D84" s="22">
         <v>1</v>
       </c>
       <c r="E84" s="21"/>
@@ -55905,11 +55954,11 @@
       <c r="A85" s="21">
         <v>84</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="21"/>
-      <c r="D85" s="21">
+      <c r="D85" s="22">
         <v>2</v>
       </c>
       <c r="E85" s="21"/>
@@ -55919,11 +55968,11 @@
       <c r="A86" s="21">
         <v>85</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="21"/>
-      <c r="D86" s="21">
+      <c r="D86" s="22">
         <v>1</v>
       </c>
       <c r="E86" s="21"/>
@@ -55933,11 +55982,11 @@
       <c r="A87" s="21">
         <v>86</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="21"/>
-      <c r="D87" s="21">
+      <c r="D87" s="22">
         <v>1</v>
       </c>
       <c r="E87" s="21"/>
@@ -55947,11 +55996,11 @@
       <c r="A88" s="21">
         <v>87</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="21"/>
-      <c r="D88" s="21">
+      <c r="D88" s="22">
         <v>2</v>
       </c>
       <c r="E88" s="21"/>
@@ -55961,11 +56010,11 @@
       <c r="A89" s="21">
         <v>88</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="21"/>
-      <c r="D89" s="21">
+      <c r="D89" s="22">
         <v>1</v>
       </c>
       <c r="E89" s="21"/>
@@ -55975,11 +56024,11 @@
       <c r="A90" s="21">
         <v>89</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="21"/>
-      <c r="D90" s="21">
+      <c r="D90" s="22">
         <v>1</v>
       </c>
       <c r="E90" s="21"/>
@@ -55989,11 +56038,11 @@
       <c r="A91" s="21">
         <v>90</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="21"/>
-      <c r="D91" s="21">
+      <c r="D91" s="22">
         <v>1</v>
       </c>
       <c r="E91" s="21"/>
@@ -56003,11 +56052,11 @@
       <c r="A92" s="21">
         <v>91</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="21"/>
-      <c r="D92" s="21">
+      <c r="D92" s="22">
         <v>1</v>
       </c>
       <c r="E92" s="21"/>
@@ -56017,11 +56066,11 @@
       <c r="A93" s="21">
         <v>92</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="21">
+      <c r="D93" s="22">
         <v>3</v>
       </c>
       <c r="E93" s="21"/>
@@ -56031,11 +56080,11 @@
       <c r="A94" s="21">
         <v>93</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="21"/>
-      <c r="D94" s="21">
+      <c r="D94" s="22">
         <v>3</v>
       </c>
       <c r="E94" s="21"/>
@@ -56045,11 +56094,11 @@
       <c r="A95" s="21">
         <v>94</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="21"/>
-      <c r="D95" s="21">
+      <c r="D95" s="22">
         <v>3</v>
       </c>
       <c r="E95" s="21"/>
@@ -56059,11 +56108,11 @@
       <c r="A96" s="21">
         <v>95</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="21">
+      <c r="D96" s="22">
         <v>3</v>
       </c>
       <c r="E96" s="21"/>
@@ -56073,11 +56122,11 @@
       <c r="A97" s="21">
         <v>96</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="21"/>
-      <c r="D97" s="21">
+      <c r="D97" s="22">
         <v>3</v>
       </c>
       <c r="E97" s="21"/>
@@ -56087,11 +56136,11 @@
       <c r="A98" s="21">
         <v>97</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C98" s="21"/>
-      <c r="D98" s="21">
+      <c r="D98" s="22">
         <v>3</v>
       </c>
       <c r="E98" s="21"/>
@@ -56101,11 +56150,11 @@
       <c r="A99" s="21">
         <v>98</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="21"/>
-      <c r="D99" s="21">
+      <c r="D99" s="22">
         <v>3</v>
       </c>
       <c r="E99" s="21"/>
@@ -56115,11 +56164,11 @@
       <c r="A100" s="21">
         <v>99</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="21"/>
-      <c r="D100" s="21">
+      <c r="D100" s="22">
         <v>3</v>
       </c>
       <c r="E100" s="21"/>
@@ -56129,11 +56178,11 @@
       <c r="A101" s="21">
         <v>100</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="21"/>
-      <c r="D101" s="21">
+      <c r="D101" s="22">
         <v>3</v>
       </c>
       <c r="E101" s="21"/>
@@ -56143,11 +56192,11 @@
       <c r="A102" s="21">
         <v>101</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="21"/>
-      <c r="D102" s="21">
+      <c r="D102" s="22">
         <v>3</v>
       </c>
       <c r="E102" s="21"/>
@@ -56157,11 +56206,11 @@
       <c r="A103" s="21">
         <v>102</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="21">
+      <c r="D103" s="22">
         <v>3</v>
       </c>
       <c r="E103" s="21"/>
@@ -56171,11 +56220,11 @@
       <c r="A104" s="21">
         <v>103</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="21"/>
-      <c r="D104" s="21">
+      <c r="D104" s="22">
         <v>2</v>
       </c>
       <c r="E104" s="21"/>
@@ -56185,11 +56234,11 @@
       <c r="A105" s="21">
         <v>104</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="21"/>
-      <c r="D105" s="21">
+      <c r="D105" s="22">
         <v>2</v>
       </c>
       <c r="E105" s="21"/>
@@ -56199,11 +56248,11 @@
       <c r="A106" s="21">
         <v>105</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="21"/>
-      <c r="D106" s="21">
+      <c r="D106" s="22">
         <v>3</v>
       </c>
       <c r="E106" s="21"/>
@@ -56213,11 +56262,11 @@
       <c r="A107" s="21">
         <v>106</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="21"/>
-      <c r="D107" s="21">
+      <c r="D107" s="22">
         <v>3</v>
       </c>
       <c r="E107" s="21"/>
@@ -56227,11 +56276,11 @@
       <c r="A108" s="21">
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="21"/>
-      <c r="D108" s="21">
+      <c r="D108" s="22">
         <v>3</v>
       </c>
       <c r="E108" s="21"/>
@@ -56241,11 +56290,11 @@
       <c r="A109" s="21">
         <v>108</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="21"/>
-      <c r="D109" s="21">
+      <c r="D109" s="22">
         <v>3</v>
       </c>
       <c r="E109" s="21"/>
@@ -56255,11 +56304,11 @@
       <c r="A110" s="21">
         <v>109</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="21">
+      <c r="C110" s="28"/>
+      <c r="D110" s="22">
         <v>3</v>
       </c>
       <c r="E110" s="21"/>
@@ -56269,11 +56318,11 @@
       <c r="A111" s="21">
         <v>110</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="21">
+      <c r="D111" s="22">
         <v>3</v>
       </c>
       <c r="E111" s="21"/>
@@ -56283,11 +56332,11 @@
       <c r="A112" s="21">
         <v>111</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="21">
+      <c r="D112" s="22">
         <v>3</v>
       </c>
       <c r="E112" s="21"/>
@@ -56297,11 +56346,11 @@
       <c r="A113" s="21">
         <v>112</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="21">
+      <c r="D113" s="22">
         <v>3</v>
       </c>
       <c r="E113" s="21"/>
@@ -56311,11 +56360,11 @@
       <c r="A114" s="21">
         <v>113</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C114" s="21"/>
-      <c r="D114" s="21">
+      <c r="D114" s="22">
         <v>3</v>
       </c>
       <c r="E114" s="21"/>
@@ -56325,11 +56374,11 @@
       <c r="A115" s="21">
         <v>114</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C115" s="21"/>
-      <c r="D115" s="21">
+      <c r="D115" s="22">
         <v>3</v>
       </c>
       <c r="E115" s="21"/>
@@ -56339,11 +56388,11 @@
       <c r="A116" s="21">
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="21"/>
-      <c r="D116" s="21">
+      <c r="D116" s="22">
         <v>3</v>
       </c>
       <c r="E116" s="21"/>
@@ -56353,765 +56402,816 @@
       <c r="A117" s="21">
         <v>116</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C117" s="21"/>
-      <c r="D117" s="21">
+      <c r="D117" s="22">
         <v>3</v>
       </c>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
     </row>
     <row r="118" customHeight="1" spans="1:6">
-      <c r="A118" s="28">
+      <c r="A118" s="29">
         <v>117</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="30" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="21"/>
-      <c r="D118" s="21">
+      <c r="D118" s="22">
         <v>1</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="8"/>
     </row>
     <row r="119" customHeight="1" spans="1:6">
-      <c r="A119" s="28">
+      <c r="A119" s="29">
         <v>118</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="30" t="s">
         <v>128</v>
       </c>
       <c r="C119" s="21"/>
-      <c r="D119" s="21">
+      <c r="D119" s="22">
         <v>2</v>
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="8"/>
     </row>
     <row r="120" customHeight="1" spans="1:6">
-      <c r="A120" s="28">
+      <c r="A120" s="29">
         <v>119</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="30" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="21"/>
-      <c r="D120" s="21">
+      <c r="D120" s="22">
         <v>2</v>
       </c>
       <c r="E120" s="21"/>
       <c r="F120" s="8"/>
     </row>
     <row r="121" customHeight="1" spans="1:6">
-      <c r="A121" s="28">
+      <c r="A121" s="29">
         <v>120</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="30" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="21"/>
-      <c r="D121" s="21">
+      <c r="D121" s="22">
         <v>2</v>
       </c>
       <c r="E121" s="21"/>
       <c r="F121" s="8"/>
     </row>
     <row r="122" customHeight="1" spans="1:6">
-      <c r="A122" s="28">
+      <c r="A122" s="29">
         <v>121</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="30" t="s">
         <v>131</v>
       </c>
       <c r="C122" s="21"/>
-      <c r="D122" s="21">
+      <c r="D122" s="22">
         <v>3</v>
       </c>
       <c r="E122" s="21"/>
       <c r="F122" s="8"/>
     </row>
     <row r="123" customHeight="1" spans="1:6">
-      <c r="A123" s="28">
+      <c r="A123" s="29">
         <v>122</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C123" s="21"/>
-      <c r="D123" s="21">
+      <c r="D123" s="22">
         <v>2</v>
       </c>
       <c r="E123" s="21"/>
       <c r="F123" s="8"/>
     </row>
     <row r="124" customHeight="1" spans="1:6">
-      <c r="A124" s="28">
+      <c r="A124" s="29">
         <v>123</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="21"/>
-      <c r="D124" s="21">
+      <c r="D124" s="22">
         <v>2</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="8"/>
     </row>
     <row r="125" customHeight="1" spans="1:6">
-      <c r="A125" s="28">
+      <c r="A125" s="29">
         <v>124</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="30" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="21">
+      <c r="D125" s="22">
         <v>1</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="8"/>
     </row>
     <row r="126" customHeight="1" spans="1:6">
-      <c r="A126" s="28">
+      <c r="A126" s="29">
         <v>125</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="21"/>
-      <c r="D126" s="21">
+      <c r="D126" s="22">
         <v>1</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="8"/>
     </row>
     <row r="127" customHeight="1" spans="1:6">
-      <c r="A127" s="28">
+      <c r="A127" s="29">
         <v>126</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="30" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="21"/>
-      <c r="D127" s="21">
+      <c r="D127" s="22">
         <v>2</v>
       </c>
       <c r="E127" s="21"/>
       <c r="F127" s="8"/>
     </row>
     <row r="128" customHeight="1" spans="1:6">
-      <c r="A128" s="28">
+      <c r="A128" s="29">
         <v>127</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="30" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="21"/>
-      <c r="D128" s="21">
-        <v>2</v>
+      <c r="D128" s="22">
+        <v>1</v>
       </c>
       <c r="E128" s="21"/>
       <c r="F128" s="8"/>
     </row>
     <row r="129" customHeight="1" spans="1:4">
-      <c r="A129" s="28">
+      <c r="A129" s="29">
         <v>128</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:4">
-      <c r="A130" s="28">
+      <c r="A130" s="29">
         <v>129</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B130" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
-      <c r="A131" s="28">
+      <c r="A131" s="29">
         <v>130</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
-      <c r="A132" s="28">
+      <c r="A132" s="29">
         <v>131</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
-      <c r="A133" s="28">
+      <c r="A133" s="29">
         <v>132</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
-      <c r="A134" s="28">
+      <c r="A134" s="29">
         <v>133</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
-      <c r="A135" s="28">
+      <c r="A135" s="29">
         <v>134</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:4">
-      <c r="A136" s="28">
+      <c r="A136" s="29">
         <v>135</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:4">
-      <c r="A137" s="28">
+      <c r="A137" s="29">
         <v>136</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:4">
-      <c r="A138" s="28">
+      <c r="A138" s="29">
         <v>137</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:4">
-      <c r="A139" s="28">
+      <c r="A139" s="29">
         <v>138</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
-      <c r="A140" s="28">
+      <c r="A140" s="29">
         <v>139</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
-      <c r="A141" s="28">
+      <c r="A141" s="29">
         <v>140</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:2">
-      <c r="A142" s="28">
+    <row r="142" customHeight="1" spans="1:4">
+      <c r="A142" s="29">
         <v>141</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="30" t="s">
         <v>151</v>
+      </c>
+      <c r="D142" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:4">
-      <c r="A143" s="28">
+      <c r="A143" s="29">
         <v>142</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:2">
-      <c r="A144" s="28">
+    <row r="144" customHeight="1" spans="1:4">
+      <c r="A144" s="29">
         <v>143</v>
       </c>
-      <c r="B144" s="29" t="s">
-        <v>151</v>
+      <c r="B144" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:4">
-      <c r="A145" s="28">
+      <c r="A145" s="29">
         <v>144</v>
       </c>
-      <c r="B145" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D145" s="18">
+      <c r="B145" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:4">
-      <c r="A146" s="28">
+      <c r="A146" s="29">
         <v>145</v>
       </c>
-      <c r="B146" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D146" s="18">
+      <c r="B146" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:4">
-      <c r="A147" s="28">
+      <c r="A147" s="29">
         <v>146</v>
       </c>
-      <c r="B147" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D147" s="18">
+      <c r="B147" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D147" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:4">
-      <c r="A148" s="28">
+      <c r="A148" s="29">
         <v>147</v>
       </c>
-      <c r="B148" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D148" s="18">
+      <c r="B148" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:4">
-      <c r="A149" s="28">
+      <c r="A149" s="29">
         <v>148</v>
       </c>
-      <c r="B149" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D149" s="18">
+      <c r="B149" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:4">
-      <c r="A150" s="28">
+      <c r="A150" s="29">
         <v>149</v>
       </c>
-      <c r="B150" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D150" s="18">
+      <c r="B150" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:4">
-      <c r="A151" s="28">
+      <c r="A151" s="29">
         <v>150</v>
       </c>
-      <c r="B151" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D151" s="18">
+      <c r="B151" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:2">
-      <c r="A152" s="28">
+    <row r="152" customHeight="1" spans="1:4">
+      <c r="A152" s="29">
         <v>151</v>
       </c>
-      <c r="B152" s="29" t="s">
-        <v>151</v>
+      <c r="B152" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D152" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:4">
-      <c r="A153" s="28">
+      <c r="A153" s="29">
         <v>152</v>
       </c>
-      <c r="B153" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D153" s="18">
+      <c r="B153" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D153" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:2">
-      <c r="A154" s="28">
+    <row r="154" customHeight="1" spans="1:4">
+      <c r="A154" s="29">
         <v>153</v>
       </c>
-      <c r="B154" s="29" t="s">
-        <v>151</v>
+      <c r="B154" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:4">
-      <c r="A155" s="28">
+      <c r="A155" s="29">
         <v>154</v>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D155" s="18">
+      <c r="B155" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:4">
-      <c r="A156" s="28">
+      <c r="A156" s="29">
         <v>155</v>
       </c>
-      <c r="B156" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D156" s="18">
+      <c r="B156" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D156" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:2">
-      <c r="A157" s="28">
+    <row r="157" customHeight="1" spans="1:4">
+      <c r="A157" s="29">
         <v>156</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>151</v>
+      <c r="B157" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:4">
-      <c r="A158" s="28">
+      <c r="A158" s="29">
         <v>157</v>
       </c>
-      <c r="B158" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D158" s="18">
+      <c r="B158" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:2">
-      <c r="A159" s="28">
+    <row r="159" customHeight="1" spans="1:4">
+      <c r="A159" s="29">
         <v>158</v>
       </c>
-      <c r="B159" s="29" t="s">
-        <v>164</v>
+      <c r="B159" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" s="19">
+        <v>2</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:2">
-      <c r="A160" s="28">
+    <row r="160" customHeight="1" spans="1:4">
+      <c r="A160" s="29">
         <v>159</v>
       </c>
-      <c r="B160" s="29" t="s">
-        <v>151</v>
+      <c r="B160" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D160" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:4">
-      <c r="A161" s="28">
+      <c r="A161" s="29">
         <v>160</v>
       </c>
-      <c r="B161" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D161" s="18">
+      <c r="B161" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D161" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:2">
-      <c r="A162" s="28">
+    <row r="162" customHeight="1" spans="1:4">
+      <c r="A162" s="29">
         <v>161</v>
       </c>
-      <c r="B162" s="29" t="s">
-        <v>151</v>
+      <c r="B162" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:4">
-      <c r="A163" s="28">
+      <c r="A163" s="29">
         <v>162</v>
       </c>
-      <c r="B163" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D163" s="18">
+      <c r="B163" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D163" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:2">
-      <c r="A164" s="28">
+    <row r="164" customHeight="1" spans="1:4">
+      <c r="A164" s="29">
         <v>163</v>
       </c>
-      <c r="B164" s="29" t="s">
-        <v>151</v>
+      <c r="B164" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D164" s="19">
+        <v>3</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:2">
-      <c r="A165" s="28">
+    <row r="165" customHeight="1" spans="1:4">
+      <c r="A165" s="29">
         <v>164</v>
       </c>
-      <c r="B165" s="29" t="s">
-        <v>151</v>
+      <c r="B165" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D165" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:4">
-      <c r="A166" s="28">
+      <c r="A166" s="29">
         <v>165</v>
       </c>
-      <c r="B166" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D166" s="18">
+      <c r="B166" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:2">
-      <c r="A167" s="28">
+    <row r="167" customHeight="1" spans="1:4">
+      <c r="A167" s="29">
         <v>166</v>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>151</v>
+      <c r="B167" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D167" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:4">
-      <c r="A168" s="28">
+      <c r="A168" s="29">
         <v>167</v>
       </c>
-      <c r="B168" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D168" s="18">
+      <c r="B168" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D168" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:4">
-      <c r="A169" s="28">
+      <c r="A169" s="29">
         <v>168</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D169" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:4">
+      <c r="A170" s="29">
         <v>169</v>
       </c>
-      <c r="D169" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="1:2">
-      <c r="A170" s="28">
-        <v>169</v>
-      </c>
-      <c r="B170" s="29" t="s">
-        <v>151</v>
+      <c r="B170" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:4">
-      <c r="A171" s="28">
+      <c r="A171" s="29">
         <v>170</v>
       </c>
-      <c r="B171" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D171" s="18">
+      <c r="B171" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D171" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:2">
-      <c r="A172" s="28">
+    <row r="172" customHeight="1" spans="1:4">
+      <c r="A172" s="29">
         <v>171</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>151</v>
+        <v>181</v>
+      </c>
+      <c r="D172" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:4">
-      <c r="A173" s="28">
+      <c r="A173" s="29">
         <v>172</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D173" s="18">
+        <v>182</v>
+      </c>
+      <c r="D173" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:2">
-      <c r="A174" s="28">
+    <row r="174" customHeight="1" spans="1:4">
+      <c r="A174" s="29">
         <v>173</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>151</v>
+        <v>183</v>
+      </c>
+      <c r="D174" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:4">
-      <c r="A175" s="28">
+      <c r="A175" s="29">
         <v>174</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D175" s="18">
+        <v>184</v>
+      </c>
+      <c r="D175" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:2">
-      <c r="A176" s="28">
+    <row r="176" customHeight="1" spans="1:4">
+      <c r="A176" s="29">
         <v>175</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>151</v>
+        <v>185</v>
+      </c>
+      <c r="D176" s="19">
+        <v>3</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:2">
-      <c r="A177" s="28">
+    <row r="177" customHeight="1" spans="1:4">
+      <c r="A177" s="29">
         <v>176</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>173</v>
+        <v>186</v>
+      </c>
+      <c r="D177" s="19">
+        <v>1</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:2">
-      <c r="A178" s="28">
+    <row r="178" customHeight="1" spans="1:4">
+      <c r="A178" s="29">
         <v>177</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>151</v>
+        <v>187</v>
+      </c>
+      <c r="D178" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:4">
-      <c r="A179" s="28">
+      <c r="A179" s="29">
         <v>178</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D179" s="18">
+        <v>188</v>
+      </c>
+      <c r="D179" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:4">
-      <c r="A180" s="28">
+      <c r="A180" s="29">
         <v>179</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D180" s="18">
+        <v>189</v>
+      </c>
+      <c r="D180" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:4">
-      <c r="A181" s="28">
+      <c r="A181" s="29">
         <v>180</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D181" s="18">
+        <v>190</v>
+      </c>
+      <c r="D181" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:4">
-      <c r="A182" s="28">
+      <c r="A182" s="29">
         <v>181</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D182" s="18">
+        <v>191</v>
+      </c>
+      <c r="D182" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:4">
-      <c r="A183" s="28">
+      <c r="A183" s="29">
         <v>182</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D183" s="18">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="D183" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:4">
-      <c r="A184" s="28">
+      <c r="A184" s="29">
         <v>183</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D184" s="18">
+        <v>192</v>
+      </c>
+      <c r="D184" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:4">
-      <c r="A185" s="28">
+      <c r="A185" s="29">
         <v>184</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D185" s="18">
+        <v>193</v>
+      </c>
+      <c r="D185" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:4">
-      <c r="A186" s="28">
+      <c r="A186" s="29">
         <v>185</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D186" s="18">
+        <v>194</v>
+      </c>
+      <c r="D186" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:4">
-      <c r="A187" s="28">
+      <c r="A187" s="29">
         <v>186</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D187" s="18">
+        <v>195</v>
+      </c>
+      <c r="D187" s="19">
         <v>1</v>
       </c>
     </row>
@@ -57169,28 +57269,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -57205,18 +57305,18 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -57231,18 +57331,18 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57257,18 +57357,18 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -57283,18 +57383,18 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57309,18 +57409,18 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -57335,18 +57435,18 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57361,18 +57461,18 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57380,25 +57480,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C9" s="17">
         <v>8</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -57413,18 +57513,18 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57439,18 +57539,18 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -57465,18 +57565,18 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -57491,18 +57591,18 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -57517,18 +57617,18 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -57543,18 +57643,18 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -57565,22 +57665,22 @@
         <v>21</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -57591,22 +57691,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -57617,22 +57717,22 @@
         <v>25</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -57644,21 +57744,21 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -57670,21 +57770,21 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -57696,21 +57796,21 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -57721,22 +57821,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -57747,22 +57847,22 @@
         <v>31</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -57773,22 +57873,22 @@
         <v>32</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -57799,22 +57899,22 @@
         <v>33</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -57825,22 +57925,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -57851,22 +57951,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -57877,22 +57977,22 @@
         <v>36</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -57903,22 +58003,22 @@
         <v>37</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -57933,18 +58033,18 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -57955,22 +58055,22 @@
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -57981,22 +58081,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -58007,22 +58107,22 @@
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -58033,22 +58133,22 @@
         <v>42</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -58063,18 +58163,18 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -58089,18 +58189,18 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -58111,22 +58211,22 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -58141,18 +58241,18 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -58166,21 +58266,21 @@
         <v>8</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -58194,21 +58294,21 @@
         <v>9</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -58223,18 +58323,18 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -58249,18 +58349,18 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -58271,22 +58371,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -58297,22 +58397,22 @@
         <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -58323,22 +58423,22 @@
         <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -58353,18 +58453,18 @@
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -58379,18 +58479,18 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -58405,18 +58505,18 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -58431,18 +58531,18 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -58457,18 +58557,18 @@
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -58479,22 +58579,22 @@
         <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -58509,18 +58609,18 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -58535,18 +58635,18 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -58557,22 +58657,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -58583,22 +58683,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -58613,18 +58713,18 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -58639,18 +58739,18 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -58665,18 +58765,18 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -58691,18 +58791,18 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -58717,18 +58817,18 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -58739,22 +58839,22 @@
         <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -58765,22 +58865,22 @@
         <v>71</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -58791,22 +58891,22 @@
         <v>72</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -58817,22 +58917,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -58843,22 +58943,22 @@
         <v>74</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -58869,22 +58969,22 @@
         <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -58895,22 +58995,22 @@
         <v>76</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -58921,22 +59021,22 @@
         <v>77</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -58947,22 +59047,22 @@
         <v>78</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -58973,22 +59073,22 @@
         <v>79</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -58999,22 +59099,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -59025,22 +59125,22 @@
         <v>81</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -59051,22 +59151,22 @@
         <v>82</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -59077,24 +59177,24 @@
         <v>83</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -59105,22 +59205,22 @@
         <v>84</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -59131,22 +59231,22 @@
         <v>85</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -59157,22 +59257,22 @@
         <v>86</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -59183,22 +59283,22 @@
         <v>87</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -59209,22 +59309,22 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -59235,22 +59335,22 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -59265,18 +59365,18 @@
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -59287,22 +59387,22 @@
         <v>91</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -59317,18 +59417,18 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -59342,21 +59442,21 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -59370,21 +59470,21 @@
         <v>8</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -59395,22 +59495,22 @@
         <v>95</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -59425,18 +59525,18 @@
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -59451,18 +59551,18 @@
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -59477,18 +59577,18 @@
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -59502,21 +59602,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -59531,18 +59631,18 @@
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -59557,18 +59657,18 @@
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -59583,18 +59683,18 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -59609,18 +59709,18 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -59635,18 +59735,18 @@
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -59661,18 +59761,18 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -59687,18 +59787,18 @@
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -59713,18 +59813,18 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -59739,18 +59839,18 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -59765,18 +59865,18 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -59787,22 +59887,22 @@
         <v>112</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -59813,22 +59913,22 @@
         <v>113</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59843,18 +59943,18 @@
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -59869,18 +59969,18 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -59891,22 +59991,22 @@
         <v>116</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -59917,24 +60017,24 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -59945,24 +60045,24 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -59973,22 +60073,22 @@
         <v>119</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -59996,25 +60096,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -60022,25 +60122,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -60048,27 +60148,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -60076,25 +60176,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -60102,25 +60202,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -60128,27 +60228,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -60156,27 +60256,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -60184,25 +60284,25 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -60210,25 +60310,25 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -60236,25 +60336,25 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -60262,25 +60362,25 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -60288,25 +60388,25 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -60314,25 +60414,25 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -60340,25 +60440,25 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -60366,25 +60466,25 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -60392,25 +60492,25 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -60418,25 +60518,25 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -60444,25 +60544,25 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -60470,25 +60570,25 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -60496,25 +60596,25 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -60522,25 +60622,25 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -60548,25 +60648,25 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -60574,25 +60674,25 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -60600,25 +60700,25 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -60626,25 +60726,25 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -60652,25 +60752,25 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -60678,25 +60778,25 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -60704,25 +60804,25 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -60730,25 +60830,25 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -60756,25 +60856,25 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -60782,25 +60882,25 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -60808,25 +60908,25 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60834,25 +60934,25 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -60860,25 +60960,25 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -60886,25 +60986,25 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -60912,25 +61012,25 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -60938,25 +61038,25 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -60964,27 +61064,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -60992,27 +61092,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -61020,27 +61120,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -61048,27 +61148,27 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -61076,27 +61176,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -61104,25 +61204,25 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -61130,25 +61230,25 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -61156,25 +61256,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -61182,25 +61282,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -61208,25 +61308,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -61234,25 +61334,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -61260,25 +61360,25 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -61286,25 +61386,25 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -61312,25 +61412,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -61338,25 +61438,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -61364,25 +61464,25 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -61390,25 +61490,25 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -61416,25 +61516,25 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -61442,27 +61542,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -61470,27 +61570,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -61498,27 +61598,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -61526,25 +61626,25 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -61552,25 +61652,25 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -61578,25 +61678,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -61604,25 +61704,25 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -61630,25 +61730,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -61656,25 +61756,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -61682,25 +61782,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -61708,27 +61808,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -61736,25 +61836,25 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -61762,25 +61862,25 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -61788,27 +61888,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -61816,27 +61916,27 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61844,25 +61944,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -61870,25 +61970,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -61896,27 +61996,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -61924,25 +62024,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -61950,25 +62050,25 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
       </c>
       <c r="D183" s="17"/>
       <c r="E183" s="16" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -61976,27 +62076,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -62034,10 +62134,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -62045,11 +62145,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -62058,11 +62158,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -62071,11 +62171,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -62084,11 +62184,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -62097,11 +62197,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -62110,7 +62210,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -62121,11 +62221,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -62134,11 +62234,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -62147,11 +62247,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -62160,11 +62260,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -62173,11 +62273,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -62186,11 +62286,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -62199,11 +62299,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -62212,11 +62312,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -62225,11 +62325,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -62238,11 +62338,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -62251,11 +62351,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -62264,11 +62364,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -62277,11 +62377,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -62290,11 +62390,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -62303,11 +62403,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -62316,11 +62416,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -62329,11 +62429,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -62342,11 +62442,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -62355,11 +62455,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -62368,11 +62468,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -62381,11 +62481,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -62394,11 +62494,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -62407,11 +62507,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -62420,11 +62520,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -62433,11 +62533,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -62446,11 +62546,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -62459,11 +62559,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -62472,11 +62572,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -62485,11 +62585,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -62498,11 +62598,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -62511,11 +62611,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -62524,11 +62624,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -62537,11 +62637,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -62550,11 +62650,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -62563,11 +62663,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -62576,11 +62676,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -62589,11 +62689,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -62602,11 +62702,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -62615,11 +62715,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -62628,11 +62728,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -62641,11 +62741,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -62654,11 +62754,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -62667,11 +62767,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -62680,11 +62780,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -62693,11 +62793,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -62706,11 +62806,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -62719,11 +62819,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -62732,11 +62832,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -62745,11 +62845,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -62758,11 +62858,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -62771,11 +62871,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -62784,11 +62884,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -62797,11 +62897,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -62810,11 +62910,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -62823,11 +62923,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62836,11 +62936,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62849,11 +62949,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -62862,11 +62962,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -62875,11 +62975,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -62888,11 +62988,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -62901,11 +63001,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -62914,11 +63014,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -62927,11 +63027,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -62940,7 +63040,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -62951,7 +63051,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -62962,7 +63062,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -62973,7 +63073,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -62984,7 +63084,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -62995,7 +63095,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -63006,7 +63106,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -63017,7 +63117,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -63028,7 +63128,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -63039,7 +63139,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -63050,7 +63150,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -63061,7 +63161,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -63072,7 +63172,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -63083,7 +63183,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -63094,7 +63194,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -63105,7 +63205,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -63116,7 +63216,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -63127,7 +63227,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -63138,7 +63238,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -63149,7 +63249,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -63160,7 +63260,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -63171,7 +63271,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -63182,7 +63282,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -63193,7 +63293,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -63204,7 +63304,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -63215,7 +63315,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -63226,7 +63326,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -63237,7 +63337,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -63248,7 +63348,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -54735,8 +54735,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="15500"/>
+    <workbookView windowWidth="25620" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="930">
   <si>
     <t>TaskId</t>
   </si>
@@ -129,13 +129,13 @@
     <t>Write Python code to jog Axis 4 for 120 milliseconds with a velocity of 90 using a TimeaccTrapezoidal profile, with acceleration time and deceleration time set to 20 milliseconds.</t>
   </si>
   <si>
-    <t>Write Python code to start an absolute path interpolation motion command for Axes 5 and 6 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50); Clockwise circular interpolation to (-100, -100) with center at (0, 0); Linear interpolation to (50, 50); Counterclockwise circular interpolation to (-100, -100) with center at (0, 0).</t>
+    <t>Write Python code to start an absolute path interpolation motion command for Axes 5 and 6 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50), Clockwise circular interpolation to (-100, -100) with center at (0, 0); Linear interpolation to (50, 50), Counterclockwise circular interpolation to (-100, -100) with center at (0, 0).</t>
   </si>
   <si>
     <t>rerank is necessary, otherwise it could not make path interpolation as first priority.</t>
   </si>
   <si>
-    <t>Write Python code to start an absolute path interpolation motion command for Axes 6 and 4 with a velocity of 1200 using a parabolic profile. The path includes: Linear interpolation to (100, 100); Clockwise circular interpolation to (0, 0) with center at (50, 50).</t>
+    <t>Write Python code to start an absolute path interpolation motion command for Axes 6 and 4 with a velocity of 1200 using a parabolic profile. The path includes: Linear interpolation to (100, 100), Clockwise circular interpolation to (0, 0) with center at (50, 50).</t>
   </si>
   <si>
     <t>clockwise 1 or 0?</t>
@@ -150,7 +150,7 @@
     <t>Write Python code to set IO output bit 1.1 to 1, wait 0.2 seconds, then set it to 0, repeating this cycle 5 times.</t>
   </si>
   <si>
-    <t>Write Python code to read IO input bit 0.3. If it is 1, set IO output bit 0.3 to 0; otherwise, set it to 1.</t>
+    <t>Write Python code to read IO input bit 0.3. If it is 1, set IO output bit 0.3 to 0, otherwise, set it to 1.</t>
   </si>
   <si>
     <t>Add to sc</t>
@@ -282,13 +282,13 @@
     <t>Write Python code to execute a velocity and acceleration limited cubic spline for Axis 1 and Axis 4 with the points (0, 0), (25, -60), (50, 0), (75, -80), (100, 0), (125, 80), and (150, 0). The velocity limits are 500 for Axis 1 and 800 for Axis 4. The acceleration limits are 5000 for Axis 1 and 8000 for Axis 4. The composite velocity and acceleration limits are 1000 and 10000, respectively.</t>
   </si>
   <si>
-    <t>Write Python code to execute an absolute position path interpolation motion command for Axis 2 and Axis 5, specifying the motion profile for each segment: linear interpolation to (50, 0) with velocity and end velocity of 1000;  clockwise circular interpolation to (75, 25) with center at (50, 25) with velocity and end velocity of 900; linear interpolation to (75, 50) with velocity and end velocity of 800; clockwise circular interpolation to (50, 75) with center at (50, 50) with velocity and end velocity of 700; linear interpolation to (0, 75) with velocity and end velocity of 600; clockwise circular interpolation to (-25, 50) with center at (0, 50) with velocity and end velocity of 700; linear interpolation to (-25, 25) with velocity and end velocity of 800; clockwise circular interpolation to (0, 0) with center at (0, 25) with velocity of 900.</t>
+    <t>Write Python code to execute an absolute position path interpolation motion command for Axis 2 and Axis 5, specifying the motion profile for each segment: linear interpolation to (50, 0) with velocity and end velocity of 1000,  clockwise circular interpolation to (75, 25) with center at (50, 25) with velocity and end velocity of 900, linear interpolation to (75, 50) with velocity and end velocity of 800, clockwise circular interpolation to (50, 75) with center at (50, 50) with velocity and end velocity of 700, linear interpolation to (0, 75) with velocity and end velocity of 600, clockwise circular interpolation to (-25, 50) with center at (0, 50) with velocity and end velocity of 700, linear interpolation to (-25, 25) with velocity and end velocity of 800, clockwise circular interpolation to (0, 0) with center at (0, 25) with velocity of 900.</t>
   </si>
   <si>
     <t>Write Python code to execute an absolute position path interpolation motion command for Axis 3 and 6 with auto-smoothing and a velocity of 1000. Move to (-40, -30) with autoSmoothRadius 10, (10, -50) with autoSmoothRadius 20, (-40, -70) with autoSmoothRadius 30, (10, -90) with autoSmoothRadius 40, (-40, -110) with autoSmoothRadius 50, and (10, -130).</t>
   </si>
   <si>
-    <t>Write Python code to execute a 3D path interpolation for Axis 4, 5, and 2 with a velocity of 300. Perform the following interpolations: Linear to (90, 0, 0); Circular to (100, 10, 0) with center (97.071, 2.929, 0); Linear to (100, 90, 0); Circular to (90, 100, 0) with center (97.071, 97.071, 0); Linear to (10, 100, 0); Circular to (0, 90, 0) with center (2.929, 97.071, 0); Linear to (0, 0, 0); Linear to (90, 0, 0); Circular to (100, 0, -10) with center (97.071, 0, -2.929); Linear to (100, 0, -90); Circular to (90, 0, -100) with center (97.071, 0, -97.071); Linear to (10, 0, -100); Circular to (0, 0, -90) with center (2.929, 0, -97.071); Linear to (0, 0, 0); Linear to (0, 90, 0); Circular to (0, 100, -10) with center (0, 97.071, -2.929); Linear to (0, 100, -90); Circular to (0, 90, -100) with center (0, 97.071, -97.071); Linear to (0, 10, -100); Circular to (0, 0, -90) with center (0, 2.929, -97.071);  Linear to (0, 0, 0). Then, reverse the entire sequence from step 21 back to step 1.</t>
+    <t>Write Python code to execute a 3D path interpolation for Axis 4, 5, and 2 with a velocity of 300. Perform the following interpolations: Linear to (90, 0, 0), Circular to (100, 10, 0) with center (97.071, 2.929, 0), Linear to (100, 90, 0), Circular to (90, 100, 0) with center (97.071, 97.071, 0), Linear to (10, 100, 0), Circular to (0, 90, 0) with center (2.929, 97.071, 0), Linear to (0, 0, 0), Linear to (90, 0, 0), Circular to (100, 0, -10) with center (97.071, 0, -2.929), Linear to (100, 0, -90), Circular to (90, 0, -100) with center (97.071, 0, -97.071), Linear to (10, 0, -100), Circular to (0, 0, -90) with center (2.929, 0, -97.071), Linear to (0, 0, 0), Linear to (0, 90, 0), Circular to (0, 100, -10) with center (0, 97.071, -2.929), Linear to (0, 100, -90), Circular to (0, 90, -100) with center (0, 97.071, -97.071), Linear to (0, 10, -100), Circular to (0, 0, -90) with center (0, 2.929, -97.071),  Linear to (0, 0, 0). Then, reverse the entire sequence from step 21 back to step 1.</t>
   </si>
   <si>
     <t>Write Python code to execute a path interpolation with a rotation sequence for Axis 5 and Axis 6, rotating around Axis 3 at a velocity of 1000. Disable rotating the X and Y axes around the center of rotation. The center of rotation is (80, 80). The four path points are: (160, 0), (160, 160), (0, 160), and (0, 0).</t>
@@ -312,13 +312,13 @@
     <t>Write Python code to execute path interpolation with look-ahead for Axis 1 and Axis 5 at a velocity of 1600, with a sample distance of 50 and an angle tolerance of 11. The path consists of 18 linear interpolations that form a counterclockwise circle which starts from (0,0) with a radius of 100.</t>
   </si>
   <si>
-    <t>Write Python code to execute path interpolation with look-ahead for Axis 2 and Axis 7 at a velocity of 2200. The path includes: line to (50, 0); circular to (50, 0) through (50, 100); line to (100, 0); sleep for 0.5 seconds; line to (150, 100); line to (200, 0).</t>
+    <t>Write Python code to execute path interpolation with look-ahead for Axis 2 and Axis 7 at a velocity of 2200. The path includes: line to (50, 0), circular to (50, 0) through (50, 100), line to (100, 0), sleep for 0.5 seconds; line to (150, 100), line to (200, 0).</t>
   </si>
   <si>
     <t>Write Python code to execute path interpolation with look-ahead for Axis 3 and Axis 5 at a velocity of 2400. The sequences are: set IO output 0.6 to 1 when the completed distance is 50, set IO output 0.6 to 0 when the remaining distance is 30, then linear interpolation to (100, 200).</t>
   </si>
   <si>
-    <t>Write Python code to execute path interpolation with look-ahead for Axis 4, 6, and 8 at a velocity of 1000, with Axis 9 as the auxiliary axis. The sequences are: Circular interpolation to (100, 100, 0) through (80, 30, 10) and auxiliary target 50; Circular interpolation to (0, 0, 0) with center (30, 80, 10) and auxiliary target -50.</t>
+    <t>Write Python code to execute path interpolation with look-ahead for Axis 4, 6, and 8 at a velocity of 1000, with Axis 9 as the auxiliary axis. The sequences are: Circular interpolation to (100, 100, 0) through (80, 30, 10) and auxiliary target 50, Circular interpolation to (0, 0, 0) with center (30, 80, 10) and auxiliary target -50.</t>
   </si>
   <si>
     <t>Write Python code to establish a Normal type E-CAM motion for master Axis 2 and slave Axis 1. Move Axis 2 to -100 with a velocity of 1000. E-CAM table is (-100, 100), (-50, 150), (0, 100), (50, 50), (100, 100), (150, 50) and (250, 150). Start the E-CAM motion. Then, move Axis 2 to 300.</t>
@@ -345,10 +345,10 @@
     <t>Write Python code to record and execute an API buffer with :Move Axis 5 to a relative position of 150 at a speed of 1500. Then it move to a relative position of -150. Auto Rewind is enabled. Then the api buffer will auto rewind and stop after 0.5s.</t>
   </si>
   <si>
-    <t>Write Python code to run an API buffer: If IO output 3.4 equals 1, move Axis 5 by a distance of 200; otherwise, move it by a distance of -140.</t>
-  </si>
-  <si>
-    <t>Write Python code to run an API buffer: If IO input 3.5 equals 0, move Axis 8 by a distance of 200; otherwise, move it by a distance of -140.</t>
+    <t>Write Python code to run an API buffer: If IO output 3.4 equals 1, move Axis 5 by a distance of 200, otherwise, move it by a distance of -140.</t>
+  </si>
+  <si>
+    <t>Write Python code to run an API buffer: If IO input 3.5 equals 0, move Axis 8 by a distance of 200, otherwise, move it by a distance of -140.</t>
   </si>
   <si>
     <t>Write Python code to run an API buffer to linearly interpolate Axis 3 and Axis 6 to (100, 0) at a speed of 1000. then linearly interpolate to (100, 100), (0, 100), and (0, 0) respectively with a condition when starting deceleration.</t>
@@ -372,13 +372,13 @@
     <t>Write Python code for a PSO of Axis4 with the Equal, PositiveDirection, and NegativeDirection comparison type and Channel 0, 1, 2 respectively. Interval position synchronization output parameters: rangeStart = 0, rangeEnd = 30, and interval = 5 with the position synchronization IO output point at 5.0, 5.1, 5.2. Move Axis 4 to 60, with a speed of 1000, and acceleration and deceleration are set to 10000.</t>
   </si>
   <si>
-    <t>Write Python code to set the In Pos Width parameter of Axis 10 to 0.234. Then check if In Pos Width equals 0.234; if it does, move Axis 10 to 234, otherwise move it to -234.</t>
+    <t>Write Python code to set the In Pos Width parameter of Axis 10 to 0.234. Then check if In Pos Width equals 0.234, if it does, move Axis 10 to 234, otherwise move it to -234.</t>
   </si>
   <si>
     <t>Write Python code to set the Home Position parameter of Axis 3 to 8.8. Then do homing for Axis 3. Finally change the parameter to 0.</t>
   </si>
   <si>
-    <t>Write Python code to set the Soft Limit Positive Position and Soft Limit Negative Position parameter of Axis 2 to 133 and -133. Then check if Soft Limit Positive Position and Soft Limit Negative Position equals 133 and -133; if it does, move Axis 2 to 132, otherwise move it to -132.</t>
+    <t>Write Python code to set the Soft Limit Positive Position and Soft Limit Negative Position parameter of Axis 2 to 133 and -133. Then check if Soft Limit Positive Position and Soft Limit Negative Position equals 133 and -133, if it does, move Axis 2 to 132, otherwise move it to -132.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 8 to 150, then set the Enable Global Starting Velocity parameter of Axis 8 to TRUE and Global Starting Velocity parameter to 555. Then move it to 300.</t>
@@ -423,7 +423,7 @@
     <t>1. Write Python code to move Axis 7 to position 220 with a speed of 1500; 2. set IO output bit 0.7 to 1, sleep for 0.2 seconds, then set it to 0; 3. start an absolute linear interpolation for Axes 7 and 9 to position (200, 50) with a velocity of 1200;  4. start an relative linear interpolation for Axes 7 and 9 to position (-100, 50); 5. start a counterclockwise circular interpolation motion command for Axis 7 and 9, with a center position of (50, 50), an arc length of 270, and a velocity of 1000.</t>
   </si>
   <si>
-    <t>1. Write Python code to start an absolute path interpolation motion command for Axes 9 and 2 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50); Clockwise circular interpolation to (-100, -100) with center at (0, 0); Linear interpolation to (50, 50); Counterclockwise circular interpolation to (-100, -100) with center at (0, 0); 2. start an absolute linear interpolation for Axes 9 and 2 to position (100, 200) with a velocity of 1000; 3. start a clockwise circular interpolation motion command for Axis 9 and 2, with a center position of (100, 100), an arc length of 180, and a velocity of 1200; 4. Move Axis 9 and 2 to (100, 200).</t>
+    <t>1. Write Python code to start an absolute path interpolation motion command for Axes 9 and 2 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50), Clockwise circular interpolation to (-100, -100) with center at (0, 0), Linear interpolation to (50, 50), Counterclockwise circular interpolation to (-100, -100) with center at (0, 0); 2. start an absolute linear interpolation for Axes 9 and 2 to position (100, 200) with a velocity of 1000; 3. start a clockwise circular interpolation motion command for Axis 9 and 2, with a center position of (100, 100), an arc length of 180, and a velocity of 1200; 4. Move Axis 9 and 2 to (100, 200).</t>
   </si>
   <si>
     <t xml:space="preserve">1. Write Python code to Record and execute an API buffer: move Axis 7 to position 150 and Axis 8 to position 180; 2. linearly interpolate Axis 7 and 8 to (191, 222) at a velocity of 1000 with acceleration and deceleration of 10000; 3. execute a trapezoidal profile type cubic spline for Axis 7 and Axis 8 with the points (0, 0), (25, -50), (50, 0), (75, 50), and (100, 0) at a velocity of 1600; 4. set IO output bit 3.1 to 1, wait 0.2 seconds, then set it to 0, repeating this cycle 5 times; </t>
@@ -2107,6 +2107,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to start an absolute path interpolation motion command for Axes 5 and 6 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50); Clockwise circular interpolation to (-100, -100) with center at (0, 0); Linear interpolation to (50, 50); Counterclockwise circular interpolation to (-100, -100) with center at (0, 0).</t>
+  </si>
+  <si>
     <t>5,6</t>
   </si>
   <si>
@@ -2295,6 +2298,9 @@
 print('Wait_AxisSel error code is ' + str(ret) + ': ' + Wmx3Lib_adv.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>Write Python code to start an absolute path interpolation motion command for Axes 6 and 4 with a velocity of 1200 using a parabolic profile. The path includes: Linear interpolation to (100, 100); Clockwise circular interpolation to (0, 0) with center at (50, 50).</t>
   </si>
   <si>
     <t>4,6</t>
@@ -2599,6 +2605,9 @@
 if i &lt; cycles - 1:
 sleep(0.2)
 </t>
+  </si>
+  <si>
+    <t>Write Python code to read IO input bit 0.3. If it is 1, set IO output bit 0.3 to 0; otherwise, set it to 1.</t>
   </si>
   <si>
     <t>out_0.3</t>
@@ -7385,6 +7394,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to execute an absolute position path interpolation motion command for Axis 2 and Axis 5, specifying the motion profile for each segment: linear interpolation to (50, 0) with velocity and end velocity of 1000;  clockwise circular interpolation to (75, 25) with center at (50, 25) with velocity and end velocity of 900; linear interpolation to (75, 50) with velocity and end velocity of 800; clockwise circular interpolation to (50, 75) with center at (50, 50) with velocity and end velocity of 700; linear interpolation to (0, 75) with velocity and end velocity of 600; clockwise circular interpolation to (-25, 50) with center at (0, 50) with velocity and end velocity of 700; linear interpolation to (-25, 25) with velocity and end velocity of 800; clockwise circular interpolation to (0, 0) with center at (0, 25) with velocity of 900.</t>
+  </si>
+  <si>
     <t>2,5</t>
   </si>
   <si>
@@ -7647,6 +7659,9 @@
 print('Wait_AxisSel error code is ' + str(ret) + ': ' + Wmx3Lib_adv.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>Write Python code to execute a 3D path interpolation for Axis 4, 5, and 2 with a velocity of 300. Perform the following interpolations: Linear to (90, 0, 0); Circular to (100, 10, 0) with center (97.071, 2.929, 0); Linear to (100, 90, 0); Circular to (90, 100, 0) with center (97.071, 97.071, 0); Linear to (10, 100, 0); Circular to (0, 90, 0) with center (2.929, 97.071, 0); Linear to (0, 0, 0); Linear to (90, 0, 0); Circular to (100, 0, -10) with center (97.071, 0, -2.929); Linear to (100, 0, -90); Circular to (90, 0, -100) with center (97.071, 0, -97.071); Linear to (10, 0, -100); Circular to (0, 0, -90) with center (2.929, 0, -97.071); Linear to (0, 0, 0); Linear to (0, 90, 0); Circular to (0, 100, -10) with center (0, 97.071, -2.929); Linear to (0, 100, -90); Circular to (0, 90, -100) with center (0, 97.071, -97.071); Linear to (0, 10, -100); Circular to (0, 0, -90) with center (0, 2.929, -97.071);  Linear to (0, 0, 0). Then, reverse the entire sequence from step 21 back to step 1.</t>
   </si>
   <si>
     <t>2,4,5</t>
@@ -10703,6 +10718,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to execute path interpolation with look-ahead for Axis 2 and Axis 7 at a velocity of 2200. The path includes: line to (50, 0); circular to (50, 0) through (50, 100); line to (100, 0); sleep for 0.5 seconds; line to (150, 100); line to (200, 0).</t>
+  </si>
+  <si>
     <t>2,7</t>
   </si>
   <si>
@@ -11239,6 +11257,9 @@
 print('FreePathIntplLookaheadBuffer error code is ' + str(ret) + ': ' + Wmx3Lib_adv.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>Write Python code to execute path interpolation with look-ahead for Axis 4, 6, and 8 at a velocity of 1000, with Axis 9 as the auxiliary axis. The sequences are: Circular interpolation to (100, 100, 0) through (80, 30, 10) and auxiliary target 50; Circular interpolation to (0, 0, 0) with center (30, 80, 10) and auxiliary target -50.</t>
   </si>
   <si>
     <t>4,6,8,9</t>
@@ -13573,6 +13594,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to run an API buffer: If IO output 3.4 equals 1, move Axis 5 by a distance of 200; otherwise, move it by a distance of -140.</t>
+  </si>
+  <si>
     <t>out_3.4</t>
   </si>
   <si>
@@ -13794,6 +13818,9 @@
 Wmx3Lib_buf.Halt(0)
 Wmx3Lib_buf.FreeApiBuffer(0)
 </t>
+  </si>
+  <si>
+    <t>Write Python code to run an API buffer: If IO input 3.5 equals 0, move Axis 8 by a distance of 200; otherwise, move it by a distance of -140.</t>
   </si>
   <si>
     <t>in_3.5</t>
@@ -15169,6 +15196,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to set the In Pos Width parameter of Axis 10 to 0.234. Then check if In Pos Width equals 0.234; if it does, move Axis 10 to 234, otherwise move it to -234.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYCLE	CMDPOS10
 2314288	0
 2314291	3
@@ -15367,6 +15397,9 @@
 print('Set homePosition error code is ' + str(ret) + ': ' + Wmx3Lib_cm.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>Write Python code to set the Soft Limit Positive Position and Soft Limit Negative Position parameter of Axis 2 to 133 and -133. Then check if Soft Limit Positive Position and Soft Limit Negative Position equals 133 and -133; if it does, move Axis 2 to 132, otherwise move it to -132.</t>
   </si>
   <si>
     <t xml:space="preserve">CYCLE	CMDPOS2
@@ -18447,6 +18480,9 @@
 print('Wait_AxisSel error code is ' + str(ret) + ': ' + Wmx3Lib_cm.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>1. Write Python code to start an absolute path interpolation motion command for Axes 9 and 2 with a velocity of 1200. The path includes: Linear interpolation to (-50, -50); Clockwise circular interpolation to (-100, -100) with center at (0, 0); Linear interpolation to (50, 50); Counterclockwise circular interpolation to (-100, -100) with center at (0, 0); 2. start an absolute linear interpolation for Axes 9 and 2 to position (100, 200) with a velocity of 1000; 3. start a clockwise circular interpolation motion command for Axis 9 and 2, with a center position of (100, 100), an arc length of 180, and a velocity of 1200; 4. Move Axis 9 and 2 to (100, 200).</t>
   </si>
   <si>
     <t>2,9</t>
@@ -54735,8 +54771,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -57662,25 +57698,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -57688,25 +57724,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -57717,22 +57753,22 @@
         <v>25</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -57744,21 +57780,21 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -57770,21 +57806,21 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -57792,25 +57828,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -57821,22 +57857,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -57847,22 +57883,22 @@
         <v>31</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -57873,22 +57909,22 @@
         <v>32</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -57899,22 +57935,22 @@
         <v>33</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -57925,22 +57961,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -57951,22 +57987,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -57977,22 +58013,22 @@
         <v>36</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -58003,22 +58039,22 @@
         <v>37</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -58036,15 +58072,15 @@
         <v>203</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -58055,22 +58091,22 @@
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -58081,22 +58117,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -58107,22 +58143,22 @@
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -58133,22 +58169,22 @@
         <v>42</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -58166,15 +58202,15 @@
         <v>203</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -58192,15 +58228,15 @@
         <v>210</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -58211,22 +58247,22 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -58244,15 +58280,15 @@
         <v>210</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -58266,21 +58302,21 @@
         <v>8</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -58294,21 +58330,21 @@
         <v>9</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -58326,15 +58362,15 @@
         <v>210</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -58352,15 +58388,15 @@
         <v>210</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -58371,22 +58407,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -58397,22 +58433,22 @@
         <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -58423,22 +58459,22 @@
         <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -58456,15 +58492,15 @@
         <v>203</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -58482,15 +58518,15 @@
         <v>203</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -58508,15 +58544,15 @@
         <v>203</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -58534,15 +58570,15 @@
         <v>210</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -58560,15 +58596,15 @@
         <v>210</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -58579,22 +58615,22 @@
         <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -58612,15 +58648,15 @@
         <v>203</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -58638,15 +58674,15 @@
         <v>210</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -58657,22 +58693,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -58683,22 +58719,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -58716,15 +58752,15 @@
         <v>203</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -58742,15 +58778,15 @@
         <v>203</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -58768,15 +58804,15 @@
         <v>203</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -58794,15 +58830,15 @@
         <v>203</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -58820,15 +58856,15 @@
         <v>203</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -58839,22 +58875,22 @@
         <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -58865,22 +58901,22 @@
         <v>71</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -58888,25 +58924,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -58917,22 +58953,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -58940,25 +58976,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -58969,22 +59005,22 @@
         <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -58995,22 +59031,22 @@
         <v>76</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -59021,22 +59057,22 @@
         <v>77</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -59047,22 +59083,22 @@
         <v>78</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -59073,22 +59109,22 @@
         <v>79</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -59099,22 +59135,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -59125,22 +59161,22 @@
         <v>81</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -59148,25 +59184,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -59177,24 +59213,24 @@
         <v>83</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -59202,25 +59238,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -59231,22 +59267,22 @@
         <v>85</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -59257,22 +59293,22 @@
         <v>86</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -59283,22 +59319,22 @@
         <v>87</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -59309,22 +59345,22 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -59335,22 +59371,22 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -59368,15 +59404,15 @@
         <v>210</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -59387,22 +59423,22 @@
         <v>91</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -59420,15 +59456,15 @@
         <v>210</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -59436,27 +59472,27 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
       <c r="C84" s="14">
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -59464,27 +59500,27 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>94</v>
+        <v>452</v>
       </c>
       <c r="C85" s="17">
         <v>8</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -59495,22 +59531,22 @@
         <v>95</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -59528,15 +59564,15 @@
         <v>203</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -59554,15 +59590,15 @@
         <v>210</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -59580,15 +59616,15 @@
         <v>210</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -59602,21 +59638,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -59624,7 +59660,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>102</v>
+        <v>471</v>
       </c>
       <c r="C91" s="17">
         <v>10</v>
@@ -59634,15 +59670,15 @@
         <v>210</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -59660,15 +59696,15 @@
         <v>210</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -59676,7 +59712,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="C93" s="17">
         <v>2</v>
@@ -59686,15 +59722,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -59712,15 +59748,15 @@
         <v>210</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -59738,15 +59774,15 @@
         <v>210</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -59764,15 +59800,15 @@
         <v>210</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -59790,15 +59826,15 @@
         <v>210</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -59816,15 +59852,15 @@
         <v>210</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -59842,15 +59878,15 @@
         <v>210</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -59865,18 +59901,18 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -59887,22 +59923,22 @@
         <v>112</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -59913,22 +59949,22 @@
         <v>113</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59946,15 +59982,15 @@
         <v>210</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -59972,15 +60008,15 @@
         <v>210</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -59991,22 +60027,22 @@
         <v>116</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -60017,24 +60053,24 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -60045,24 +60081,24 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -60070,25 +60106,25 @@
         <v>109</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -60096,25 +60132,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -60122,25 +60158,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -60148,27 +60184,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>503</v>
-      </c>
       <c r="F111" s="16" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -60176,25 +60212,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -60202,25 +60238,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -60228,27 +60264,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -60256,27 +60292,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -60284,7 +60320,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
@@ -60294,15 +60330,15 @@
         <v>203</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -60310,7 +60346,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
@@ -60320,15 +60356,15 @@
         <v>203</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -60336,7 +60372,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
@@ -60346,15 +60382,15 @@
         <v>203</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -60362,7 +60398,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
@@ -60372,15 +60408,15 @@
         <v>203</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -60388,7 +60424,7 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
@@ -60398,15 +60434,15 @@
         <v>203</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -60414,7 +60450,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
@@ -60424,15 +60460,15 @@
         <v>203</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -60440,7 +60476,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
@@ -60450,15 +60486,15 @@
         <v>203</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -60466,7 +60502,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
@@ -60476,15 +60512,15 @@
         <v>203</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -60492,7 +60528,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
@@ -60502,15 +60538,15 @@
         <v>203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -60518,7 +60554,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
@@ -60528,15 +60564,15 @@
         <v>203</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -60544,7 +60580,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
@@ -60554,15 +60590,15 @@
         <v>203</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -60570,7 +60606,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
@@ -60580,15 +60616,15 @@
         <v>203</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -60596,7 +60632,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
@@ -60606,15 +60642,15 @@
         <v>203</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -60622,7 +60658,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
@@ -60632,15 +60668,15 @@
         <v>203</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -60648,7 +60684,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
@@ -60658,15 +60694,15 @@
         <v>203</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -60674,7 +60710,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
@@ -60684,15 +60720,15 @@
         <v>203</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -60700,7 +60736,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
@@ -60710,15 +60746,15 @@
         <v>203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -60726,7 +60762,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
@@ -60736,15 +60772,15 @@
         <v>203</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -60752,7 +60788,7 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
@@ -60762,15 +60798,15 @@
         <v>203</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -60778,7 +60814,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
@@ -60788,15 +60824,15 @@
         <v>203</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -60804,7 +60840,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
@@ -60814,15 +60850,15 @@
         <v>203</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -60830,7 +60866,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
@@ -60840,15 +60876,15 @@
         <v>203</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -60856,7 +60892,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
@@ -60866,15 +60902,15 @@
         <v>203</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -60882,7 +60918,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
@@ -60892,15 +60928,15 @@
         <v>203</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -60908,7 +60944,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
@@ -60918,15 +60954,15 @@
         <v>203</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60934,7 +60970,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
@@ -60944,15 +60980,15 @@
         <v>210</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -60960,25 +60996,25 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -60986,25 +61022,25 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -61012,25 +61048,25 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -61038,25 +61074,25 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -61064,27 +61100,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -61092,27 +61128,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -61120,27 +61156,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -61148,27 +61184,27 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -61176,27 +61212,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -61204,25 +61240,25 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -61230,25 +61266,25 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -61256,25 +61292,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -61282,25 +61318,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -61308,25 +61344,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -61334,25 +61370,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C156" s="14" t="s">
         <v>672</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>660</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -61360,25 +61396,25 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -61386,25 +61422,25 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -61412,25 +61448,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -61438,25 +61474,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -61464,7 +61500,7 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
@@ -61474,15 +61510,15 @@
         <v>210</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -61490,7 +61526,7 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
@@ -61500,15 +61536,15 @@
         <v>210</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -61516,7 +61552,7 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
@@ -61526,15 +61562,15 @@
         <v>210</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -61542,27 +61578,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -61570,27 +61606,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -61598,27 +61634,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -61626,25 +61662,25 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -61652,25 +61688,25 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -61678,25 +61714,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -61704,25 +61740,25 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -61730,25 +61766,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -61756,25 +61792,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -61782,25 +61818,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -61808,27 +61844,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -61836,7 +61872,7 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
@@ -61846,15 +61882,15 @@
         <v>203</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -61862,7 +61898,7 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
@@ -61872,15 +61908,15 @@
         <v>210</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -61888,27 +61924,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -61916,27 +61952,27 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61944,25 +61980,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -61970,25 +62006,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -61996,27 +62032,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -62024,25 +62060,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -62050,7 +62086,7 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
@@ -62060,15 +62096,15 @@
         <v>210</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -62076,27 +62112,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -62134,10 +62170,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -62145,11 +62181,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -62158,11 +62194,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -62171,11 +62207,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -62184,11 +62220,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -62197,11 +62233,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -62210,7 +62246,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -62221,11 +62257,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -62234,11 +62270,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -62247,11 +62283,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -62260,11 +62296,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -62273,11 +62309,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -62286,11 +62322,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -62299,11 +62335,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -62312,11 +62348,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -62325,11 +62361,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -62338,11 +62374,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -62351,11 +62387,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -62364,11 +62400,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -62377,11 +62413,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -62390,11 +62426,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -62403,11 +62439,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -62416,11 +62452,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -62429,11 +62465,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -62442,11 +62478,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -62455,11 +62491,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -62468,11 +62504,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -62481,11 +62517,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -62494,11 +62530,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -62507,11 +62543,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -62520,11 +62556,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -62533,11 +62569,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -62546,11 +62582,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -62559,11 +62595,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -62572,11 +62608,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -62585,11 +62621,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -62598,11 +62634,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -62611,11 +62647,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -62624,11 +62660,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -62637,11 +62673,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -62650,11 +62686,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -62663,11 +62699,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -62676,11 +62712,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -62689,11 +62725,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -62702,11 +62738,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -62715,11 +62751,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -62728,11 +62764,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -62741,11 +62777,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -62754,11 +62790,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -62767,11 +62803,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -62780,11 +62816,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -62793,11 +62829,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -62806,11 +62842,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -62819,11 +62855,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -62832,11 +62868,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -62845,11 +62881,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -62858,11 +62894,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -62871,11 +62907,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -62884,11 +62920,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -62897,11 +62933,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -62910,11 +62946,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -62923,11 +62959,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62936,11 +62972,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62949,11 +62985,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -62962,11 +62998,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -62975,11 +63011,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -62988,11 +63024,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -63001,11 +63037,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -63014,11 +63050,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -63027,11 +63063,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -63040,7 +63076,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -63051,7 +63087,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -63062,7 +63098,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -63073,7 +63109,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -63084,7 +63120,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -63095,7 +63131,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -63106,7 +63142,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -63117,7 +63153,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -63128,7 +63164,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -63139,7 +63175,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -63150,7 +63186,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -63161,7 +63197,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -63172,7 +63208,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -63183,7 +63219,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -63194,7 +63230,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -63205,7 +63241,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -63216,7 +63252,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -63227,7 +63263,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -63238,7 +63274,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -63249,7 +63285,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -63260,7 +63296,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -63271,7 +63307,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -63282,7 +63318,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -63293,7 +63329,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -63304,7 +63340,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -63315,7 +63351,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -63326,7 +63362,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -63337,7 +63373,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -63348,7 +63384,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="932">
   <si>
     <t>TaskId</t>
   </si>
@@ -399,10 +399,10 @@
     <t>Write Python code to set the Axis Polarity parameter of Axis 10 to -1. Then check if if this parameter is set correctly, if yes, move Axis 10 to 100, otherwise move it to -10.</t>
   </si>
   <si>
-    <t>Write Python code to get the System status 'Engine State' for the entire system. If it is Communicating, move Axis 1 to 111.1, otherwise, move to 0.1.</t>
-  </si>
-  <si>
-    <t>Write Python code to move Axis 2 to 200 and Axis 4 to 110, then if the Axis status of position command for Axis 2 minus position command for Axis 4 is 90, move Axis 2 and 4 to 300, otherwise move them to 50.</t>
+    <t>Write Python code to get the System status 'Engine State' for the entire system; If it is Communicating, move Axis 1 to 111.1, otherwise, move to 0.1.</t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to 200 and Axis 4 to 110; then if the Axis status of position command for Axis 2 minus position command for Axis 4 is 90, move Axis 2 and 4 to 300, otherwise move them to 50.</t>
   </si>
   <si>
     <t>Write Python code that moves Axis 3 and 4 to position 36 and 45 at the same time with a speed of 900, then moves 6 to 108 with the same speed.</t>
@@ -558,7 +558,7 @@
     <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position -800 with a velocity of 600, when the remaining distance is 400, trigger Axis 10 to move to 300 with a velocity of 1000, don't use wait(axis); Then set an event that triggers to start the movement of Axis 12 to -50 when Axis 10 moves to the position of 100, use wait(axis);</t>
   </si>
   <si>
-    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a SCurve profile; move axis 2 to 202 using Parabolic profile; move axis 3 to 303 using Trapezoidal profile; move axis 4 to 404 using Sin profile; move axis 5 to 505 using AdvancedS profile.</t>
+    <t>Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a SCurve profile; move axis 2 to 202 using Parabolic profile; move axis 3 to 303 using Trapezoidal profile; move axis 4 to 404 using Sin profile; move axis 5 to 505 using AdvancedS profile; move axis 6 to 606 using TimeAccJerkRatio profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 5 to the position 50 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a JerkRatio profile.</t>
@@ -573,19 +573,19 @@
     <t>Write Python code to move Axis 8 to the position 88 at a speed of 1000 using a TwoVel-JerkRatio profile.</t>
   </si>
   <si>
-    <t>Write Python code to move axis 5 to 200. then get the Axis status for Axis 5. Get the axis status of Pos Cmd, if it is 200, then move to 50.</t>
+    <t>Write Python code to move axis 5 to 200; then get the Axis status for Axis 5. Get the axis status of Pos Cmd, if it is 200, then move to 50.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 15 to the position -410 at a speed of 1000, starting Velocity of 0, and end Velocity of 0, using a Parabola-curve profile.</t>
   </si>
   <si>
-    <t>Write Python code to move axis 4 to 300. then get the Axis status for Axis 4. Get the axis status of Actual Pos, if it is 200, then move to 50, otherwise move to -50. Then move Axis 6 to the position 111 at a speed of 1000 using a TwoVelocityJerkRatio profile.</t>
+    <t>Write Python code to move axis 4 to 300; then get the Axis status for Axis 4. Get the axis status of Actual Pos, if it is 200, then move to 50, otherwise move to -50; Then move Axis 6 to the position 111 at a speed of 1000 using a TwoVelocityJerkRatio profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 2 to the position 210 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,using a TimeAccSin profile.</t>
   </si>
   <si>
-    <t>Write Python code to jog Axis 3 for 0.5s seconds with a velocity of 90. then get the Axis status for Axis 3. Get the axis status of Actual Pos, if it is more than 20, then move it to 150, otherwise move to -150. Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 0) with a velocity of 1000.</t>
+    <t>Write Python code to jog Axis 3 for 0.5s seconds with a velocity of 90; then get the Axis status for Axis 3. Get the axis status of Actual Pos, if it is more than 20, then move it to 150, otherwise move to -150; Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 0) with a velocity of 1000.</t>
   </si>
   <si>
     <t>Write Python code to execute an absolute triggered position command. Start an absolute position command for Axis 10 to move to position 800 with a velocity of 600, when the distance to target is 200, trigger Axis 10 to move to 300 with a velocity of 1000, don't use axis wait; Then set an event that triggers to start the movement of Axis 12 to 80 when Axis 10 moves to the position of 400, use wait(axis);</t>
@@ -594,7 +594,7 @@
     <t>Write Python code to move Axis 11 to the position 110 and -99 and 0 at a speed of 1000, acceleration of 10000,deceleration of 10000, jerkAcc of 1000, jerkDec of 1000, starting Velocity of 0, and end Velocity of 0, using a JerkLimitedSCurve profile.</t>
   </si>
   <si>
-    <t>Write Python code to execute a PVT command for Axis 1 with points in the format (Position, Velocity, Time): (0, 0, 0), (50, 1000, 100), (100, 2000, 200), (200, 3000, 300), (300, 1000, 400), (200, 0, 500). Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 100) with a velocity of 1000. start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, 10), (-20, -20), (30, 30), (-40, -40), (50, 50), (-60, -60), (70, 70), (-80, -80).</t>
+    <t>Write Python code to execute a PVT command for Axis 1 with points in the format (Position, Velocity, Time): (0, 0, 0), (50, 1000, 100), (100, 2000, 200), (200, 3000, 300), (300, 1000, 400), (200, 0, 500); Write Python code to start an absolute linear interpolation for Axes 1 and 3 to position (100, 100) with a velocity of 1000; start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, 10), (-20, -20), (30, 30), (-40, -40), (50, 50), (-60, -60), (70, 70), (-80, -80).</t>
   </si>
   <si>
     <t xml:space="preserve">Write Python code to move Axis 1 to the position 101 at a speed of 1000 using a TimeAccJerkRatio profile; move axis 2 to 202 using JerkRatio profile; move axis 3 to 303 using TrapezoidalMAT profile; move axis 4 to 404 using TimeAccTrapezoidal profile; move axis 5 to 505 using JerkRatioFixedVelocityS profile; move axis 6 to 606 using JerkLimitedFixedVelocityT profile; </t>
@@ -603,19 +603,19 @@
     <t>Write Python code to move Axis 9 to the position -910 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms, using a TimeAccParabolic profile.</t>
   </si>
   <si>
-    <t>Write Python code to move axis 5 to 200. then get the Axis status for Axis 5. Get the axis status of Pos Cmd, if it is 200, then move to 50. Then move Axis 8 to the position 99 at a speed of 1000 using a TimeAccJerkRatio profile.</t>
+    <t>Write Python code to move axis 5 to 200; then get the Axis status for Axis 5, get the axis status of Pos Cmd, if it is 200, then move to 50; Then move Axis 8 to the position 99 at a speed of 1000 using a TimeAccJerkRatio profile.</t>
   </si>
   <si>
     <t>Write Python code to move Axis 9 to the position 90 at a speed of 1000, jerkAccRatio of 0.5, jerkDecRatio of 0.5, starting Velocity of 0, and end Velocity of 0, using a Jerk-Ratio profile.</t>
   </si>
   <si>
-    <t xml:space="preserve">Write Python code to get the Axis status of Axis 1. Move axis 1 to 101. Get the status of position command and actual position, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
+    <t xml:space="preserve">Write Python code to get the Axis status of Axis 1; Move axis 1 to 101; Get the status of position command and actual position, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
   </si>
   <si>
     <t>Write Python code to move Axis 1 to the position 10 and -10 and 10 and -10 and 10 and -10 and 10 and -10 and0 at a speed of 1000 , accTimeMilliseconds of 50ms,decTimeMilliseconds of 50ms,starting Velocity of 0,and end Velocity of 0, using a TimeAccSCurve profile.</t>
   </si>
   <si>
-    <t xml:space="preserve">Write Python code to Move axis 12 to 101. Get the status of Actual Torque and pos cmd, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
+    <t xml:space="preserve">Write Python code to Move axis 12 to 101; Get the status of Actual Torque and pos cmd, if they are the same, move axis 1 to 201, otherwise move to -201. </t>
   </si>
   <si>
     <t>Write Python code to move Axis 3 to the position -20 and 30 and -40 and 0 at a speed of 1000 , acceleration of 10000,deceleration of 10000, jerkAccRatio of 0.5, jerkDecRatio of 0.5,starting Velocity of 0,and end Velocity of 0, using a Advanced-S profile.</t>
@@ -16188,6 +16188,9 @@
 </t>
   </si>
   <si>
+    <t>Write Python code to get the System status 'Engine State' for the entire system. If it is Communicating, move Axis 1 to 111.1, otherwise, move to 0.1.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYCLE	CMDPOS1
 2398997	0
 2399000	5
@@ -16234,6 +16237,9 @@
 if ret != 0:
 print('StartPos error code is ' + str(ret) + ': ' + Wmx3Lib_cm.ErrorToString(ret))
 </t>
+  </si>
+  <si>
+    <t>Write Python code to move Axis 2 to 200 and Axis 4 to 110, then if the Axis status of position command for Axis 2 minus position command for Axis 4 is 90, move Axis 2 and 4 to 300, otherwise move them to 50.</t>
   </si>
   <si>
     <t xml:space="preserve">CYCLE	CMDPOS2	CMDPOS4
@@ -54771,8 +54777,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -56951,7 +56957,7 @@
         <v>169</v>
       </c>
       <c r="D160" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:4">
@@ -59894,7 +59900,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>111</v>
+        <v>493</v>
       </c>
       <c r="C100" s="14">
         <v>1</v>
@@ -59904,15 +59910,15 @@
         <v>420</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -59920,7 +59926,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>112</v>
+        <v>496</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>264</v>
@@ -59930,15 +59936,15 @@
         <v>420</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -59956,15 +59962,15 @@
         <v>210</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59982,15 +59988,15 @@
         <v>210</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -60008,15 +60014,15 @@
         <v>210</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -60034,15 +60040,15 @@
         <v>210</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -60053,7 +60059,7 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>251</v>
@@ -60062,15 +60068,15 @@
         <v>420</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -60081,7 +60087,7 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>251</v>
@@ -60090,15 +60096,15 @@
         <v>420</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -60106,25 +60112,25 @@
         <v>109</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -60132,25 +60138,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -60158,25 +60164,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -60184,27 +60190,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -60212,25 +60218,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>418</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -60238,25 +60244,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -60264,27 +60270,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -60292,27 +60298,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -60320,7 +60326,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
@@ -60330,15 +60336,15 @@
         <v>203</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -60346,7 +60352,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
@@ -60356,15 +60362,15 @@
         <v>203</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -60372,7 +60378,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
@@ -60382,15 +60388,15 @@
         <v>203</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -60398,7 +60404,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
@@ -60408,15 +60414,15 @@
         <v>203</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -60424,7 +60430,7 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
@@ -60434,15 +60440,15 @@
         <v>203</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -60450,7 +60456,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
@@ -60460,15 +60466,15 @@
         <v>203</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -60476,7 +60482,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
@@ -60486,15 +60492,15 @@
         <v>203</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -60502,7 +60508,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
@@ -60512,15 +60518,15 @@
         <v>203</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -60528,7 +60534,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
@@ -60538,15 +60544,15 @@
         <v>203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -60554,7 +60560,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
@@ -60564,15 +60570,15 @@
         <v>203</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -60580,7 +60586,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
@@ -60590,15 +60596,15 @@
         <v>203</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -60606,7 +60612,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
@@ -60616,15 +60622,15 @@
         <v>203</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -60632,7 +60638,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
@@ -60642,15 +60648,15 @@
         <v>203</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -60658,7 +60664,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
@@ -60668,15 +60674,15 @@
         <v>203</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -60684,7 +60690,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
@@ -60694,15 +60700,15 @@
         <v>203</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -60710,7 +60716,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
@@ -60720,15 +60726,15 @@
         <v>203</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -60736,7 +60742,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
@@ -60746,15 +60752,15 @@
         <v>203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -60762,7 +60768,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
@@ -60772,15 +60778,15 @@
         <v>203</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -60788,7 +60794,7 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
@@ -60798,15 +60804,15 @@
         <v>203</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -60814,7 +60820,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
@@ -60824,15 +60830,15 @@
         <v>203</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -60840,7 +60846,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
@@ -60850,15 +60856,15 @@
         <v>203</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -60866,7 +60872,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
@@ -60876,15 +60882,15 @@
         <v>203</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -60892,7 +60898,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
@@ -60902,15 +60908,15 @@
         <v>203</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -60918,7 +60924,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
@@ -60928,15 +60934,15 @@
         <v>203</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -60944,7 +60950,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
@@ -60954,15 +60960,15 @@
         <v>203</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60970,7 +60976,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
@@ -60980,15 +60986,15 @@
         <v>210</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -60996,7 +61002,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>286</v>
@@ -61006,15 +61012,15 @@
         <v>210</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -61022,7 +61028,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>286</v>
@@ -61032,15 +61038,15 @@
         <v>210</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -61048,7 +61054,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>286</v>
@@ -61058,15 +61064,15 @@
         <v>210</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -61074,7 +61080,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C145" s="17" t="s">
         <v>286</v>
@@ -61084,15 +61090,15 @@
         <v>210</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -61100,27 +61106,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -61128,27 +61134,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C147" s="17" t="s">
         <v>286</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -61156,27 +61162,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -61184,13 +61190,13 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>420</v>
@@ -61204,7 +61210,7 @@
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -61212,27 +61218,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E150" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -61240,7 +61246,7 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
@@ -61250,15 +61256,15 @@
         <v>420</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -61266,7 +61272,7 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
@@ -61276,15 +61282,15 @@
         <v>420</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -61292,25 +61298,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -61318,25 +61324,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -61344,25 +61350,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -61370,25 +61376,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -61396,7 +61402,7 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
@@ -61406,15 +61412,15 @@
         <v>420</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -61422,7 +61428,7 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
@@ -61432,15 +61438,15 @@
         <v>420</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -61448,25 +61454,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -61474,25 +61480,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -61500,7 +61506,7 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
@@ -61510,15 +61516,15 @@
         <v>210</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -61526,7 +61532,7 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
@@ -61536,15 +61542,15 @@
         <v>210</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -61552,7 +61558,7 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
@@ -61562,15 +61568,15 @@
         <v>210</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -61578,27 +61584,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>379</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -61606,27 +61612,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>286</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -61634,27 +61640,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -61662,7 +61668,7 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C167" s="17" t="s">
         <v>290</v>
@@ -61672,15 +61678,15 @@
         <v>210</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -61688,7 +61694,7 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>261</v>
@@ -61698,15 +61704,15 @@
         <v>210</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -61714,25 +61720,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -61740,7 +61746,7 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>379</v>
@@ -61750,15 +61756,15 @@
         <v>420</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -61766,25 +61772,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -61792,25 +61798,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -61818,25 +61824,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -61844,27 +61850,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E174" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -61872,7 +61878,7 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
@@ -61882,15 +61888,15 @@
         <v>203</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -61898,7 +61904,7 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
@@ -61908,15 +61914,15 @@
         <v>210</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -61924,27 +61930,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -61952,7 +61958,7 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
@@ -61964,15 +61970,15 @@
         <v>420</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61980,25 +61986,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -62006,25 +62012,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -62032,27 +62038,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>420</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -62060,25 +62066,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -62086,7 +62092,7 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
@@ -62096,15 +62102,15 @@
         <v>210</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -62112,27 +62118,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E184" s="13" t="s">
         <v>420</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -62170,10 +62176,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -62181,11 +62187,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -62194,11 +62200,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -62207,11 +62213,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -62220,11 +62226,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -62233,11 +62239,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -62246,7 +62252,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -62257,11 +62263,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -62270,11 +62276,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -62283,11 +62289,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -62296,11 +62302,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -62309,11 +62315,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -62322,11 +62328,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -62335,11 +62341,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -62348,11 +62354,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -62361,11 +62367,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -62374,11 +62380,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -62387,11 +62393,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -62400,11 +62406,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -62413,11 +62419,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -62426,11 +62432,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -62439,11 +62445,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -62452,11 +62458,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -62465,11 +62471,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -62478,11 +62484,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -62491,11 +62497,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -62504,11 +62510,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -62517,11 +62523,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -62530,11 +62536,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -62543,11 +62549,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -62556,11 +62562,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -62569,11 +62575,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -62582,11 +62588,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -62595,11 +62601,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -62608,11 +62614,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -62621,11 +62627,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -62634,11 +62640,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -62647,11 +62653,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -62660,11 +62666,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -62673,11 +62679,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -62686,11 +62692,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -62699,11 +62705,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -62712,11 +62718,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -62725,11 +62731,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -62738,11 +62744,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -62751,11 +62757,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -62764,11 +62770,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -62777,11 +62783,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -62790,11 +62796,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -62803,11 +62809,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -62816,11 +62822,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -62829,11 +62835,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -62842,11 +62848,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -62855,11 +62861,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -62868,11 +62874,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -62881,11 +62887,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -62894,11 +62900,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -62907,11 +62913,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -62920,11 +62926,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -62933,11 +62939,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -62946,11 +62952,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -62959,11 +62965,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62972,11 +62978,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62985,11 +62991,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -62998,11 +63004,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -63011,11 +63017,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -63024,11 +63030,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -63037,11 +63043,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -63050,11 +63056,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -63063,11 +63069,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -63076,7 +63082,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -63087,7 +63093,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -63098,7 +63104,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -63109,7 +63115,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -63120,7 +63126,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -63131,7 +63137,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -63142,7 +63148,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -63153,7 +63159,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -63164,7 +63170,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -63175,7 +63181,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -63186,7 +63192,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -63197,7 +63203,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -63208,7 +63214,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -63219,7 +63225,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -63230,7 +63236,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -63241,7 +63247,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -63252,7 +63258,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -63263,7 +63269,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -63274,7 +63280,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -63285,7 +63291,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -63296,7 +63302,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -63307,7 +63313,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -63318,7 +63324,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -63329,7 +63335,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -63340,7 +63346,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -63351,7 +63357,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -63362,7 +63368,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -63373,7 +63379,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -63384,7 +63390,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="15480"/>
+    <workbookView windowWidth="25620" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -54777,8 +54777,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="933">
   <si>
     <t>TaskId</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Write Python code to start an absolute path interpolation for Axes 7 and 8 with a velocity of 1500. The path includes the following points to comprise a pentastar: (0.00, 0.00), (22.45, -69.10), (95.11, -69.10), (36.33, -111.80), (58.78, -180.90), (0.00, -138.20), (-58.78, -180.90), (-36.33, -111.80), (-95.11, -69.10), (-22.45, -69.10).</t>
   </si>
   <si>
-    <t>Write Python code to start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, 10), (-20, -20), (30, 30), (-40, -40), (50, 50), (-60, -60), (70, 70), (-80, -80).</t>
+    <t>Write Python code to start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, -10), (-20, 20), (30, -30), (-40, 40), (50, -50), (-60, 60), (70, -70),(0,0).</t>
   </si>
   <si>
     <t>Write Python code to create and execute a cyclic buffer memory space for Axis 9. Move to position 60 within 100 cycles, then move a relative distance of 140 within 100 cycles, then move to position -100 within 200 cycles, and close the cyclic buffer.</t>
@@ -3208,6 +3208,9 @@
 print('Wait_AxisSel error code is ' + str(ret) + ': ' + Wmx3Lib_adv.ErrorToString(ret))
 exit()
 </t>
+  </si>
+  <si>
+    <t>Write Python code to start a cubic spline motion command for Axes 8 and 9 with a total time of 1000ms to complete. The points are: (0, 0), (10, 10), (-20, -20), (30, 30), (-40, -40), (50, 50), (-60, -60), (70, 70), (-80, -80).</t>
   </si>
   <si>
     <t>8,9</t>
@@ -54777,8 +54780,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -58042,25 +58045,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -58078,15 +58081,15 @@
         <v>203</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -58097,22 +58100,22 @@
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -58123,22 +58126,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -58149,22 +58152,22 @@
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -58175,22 +58178,22 @@
         <v>42</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -58208,15 +58211,15 @@
         <v>203</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -58234,15 +58237,15 @@
         <v>210</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -58253,22 +58256,22 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -58286,15 +58289,15 @@
         <v>210</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -58308,21 +58311,21 @@
         <v>8</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -58342,15 +58345,15 @@
         <v>210</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -58368,15 +58371,15 @@
         <v>210</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -58394,15 +58397,15 @@
         <v>210</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -58413,22 +58416,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -58439,22 +58442,22 @@
         <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -58465,22 +58468,22 @@
         <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -58498,15 +58501,15 @@
         <v>203</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -58524,15 +58527,15 @@
         <v>203</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -58550,15 +58553,15 @@
         <v>203</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -58576,15 +58579,15 @@
         <v>210</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -58602,15 +58605,15 @@
         <v>210</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -58621,22 +58624,22 @@
         <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -58654,15 +58657,15 @@
         <v>203</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -58680,15 +58683,15 @@
         <v>210</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -58699,22 +58702,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -58725,22 +58728,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -58758,15 +58761,15 @@
         <v>203</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -58784,15 +58787,15 @@
         <v>203</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -58810,15 +58813,15 @@
         <v>203</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -58836,15 +58839,15 @@
         <v>203</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -58862,15 +58865,15 @@
         <v>203</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -58881,22 +58884,22 @@
         <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -58907,22 +58910,22 @@
         <v>71</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -58930,25 +58933,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -58959,22 +58962,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -58982,25 +58985,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -59011,22 +59014,22 @@
         <v>75</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -59037,22 +59040,22 @@
         <v>76</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -59063,22 +59066,22 @@
         <v>77</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -59089,22 +59092,22 @@
         <v>78</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -59115,22 +59118,22 @@
         <v>79</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -59141,22 +59144,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -59167,22 +59170,22 @@
         <v>81</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -59190,25 +59193,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="16" t="s">
         <v>203</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -59219,24 +59222,24 @@
         <v>83</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -59244,25 +59247,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -59280,15 +59283,15 @@
         <v>210</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -59299,22 +59302,22 @@
         <v>86</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -59325,22 +59328,22 @@
         <v>87</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -59351,22 +59354,22 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -59377,22 +59380,22 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -59410,15 +59413,15 @@
         <v>210</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -59429,22 +59432,22 @@
         <v>91</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -59462,15 +59465,15 @@
         <v>210</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -59478,27 +59481,27 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C84" s="14">
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -59506,27 +59509,27 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C85" s="17">
         <v>8</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -59537,22 +59540,22 @@
         <v>95</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -59570,15 +59573,15 @@
         <v>203</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -59596,15 +59599,15 @@
         <v>210</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -59622,15 +59625,15 @@
         <v>210</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -59644,21 +59647,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -59666,7 +59669,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C91" s="17">
         <v>10</v>
@@ -59676,15 +59679,15 @@
         <v>210</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -59702,15 +59705,15 @@
         <v>210</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -59718,7 +59721,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C93" s="17">
         <v>2</v>
@@ -59728,15 +59731,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -59754,15 +59757,15 @@
         <v>210</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -59780,15 +59783,15 @@
         <v>210</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -59806,15 +59809,15 @@
         <v>210</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -59832,15 +59835,15 @@
         <v>210</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -59858,15 +59861,15 @@
         <v>210</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -59884,15 +59887,15 @@
         <v>210</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -59900,25 +59903,25 @@
         <v>101</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C100" s="14">
         <v>1</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -59926,25 +59929,25 @@
         <v>102</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -59962,15 +59965,15 @@
         <v>210</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -59988,15 +59991,15 @@
         <v>210</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -60014,15 +60017,15 @@
         <v>210</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -60033,22 +60036,22 @@
         <v>116</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -60059,24 +60062,24 @@
         <v>117</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>251</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -60087,24 +60090,24 @@
         <v>118</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>251</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -60112,25 +60115,25 @@
         <v>109</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -60138,25 +60141,25 @@
         <v>110</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -60164,25 +60167,25 @@
         <v>111</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -60190,27 +60193,27 @@
         <v>112</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -60218,25 +60221,25 @@
         <v>113</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -60244,25 +60247,25 @@
         <v>114</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -60270,27 +60273,27 @@
         <v>115</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -60298,27 +60301,27 @@
         <v>116</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -60326,7 +60329,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C116" s="14">
         <v>0</v>
@@ -60336,15 +60339,15 @@
         <v>203</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -60352,7 +60355,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C117" s="17">
         <v>0</v>
@@ -60362,15 +60365,15 @@
         <v>203</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -60378,7 +60381,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C118" s="14">
         <v>0</v>
@@ -60388,15 +60391,15 @@
         <v>203</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -60404,7 +60407,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
@@ -60414,15 +60417,15 @@
         <v>203</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -60430,7 +60433,7 @@
         <v>121</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C120" s="14">
         <v>0</v>
@@ -60440,15 +60443,15 @@
         <v>203</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -60456,7 +60459,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C121" s="17">
         <v>0</v>
@@ -60466,15 +60469,15 @@
         <v>203</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
       <c r="J121" s="16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -60482,7 +60485,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C122" s="14">
         <v>0</v>
@@ -60492,15 +60495,15 @@
         <v>203</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -60508,7 +60511,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
@@ -60518,15 +60521,15 @@
         <v>203</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -60534,7 +60537,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C124" s="14">
         <v>0</v>
@@ -60544,15 +60547,15 @@
         <v>203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -60560,7 +60563,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
@@ -60570,15 +60573,15 @@
         <v>203</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -60586,7 +60589,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C126" s="14">
         <v>0</v>
@@ -60596,15 +60599,15 @@
         <v>203</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -60612,7 +60615,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
@@ -60622,15 +60625,15 @@
         <v>203</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -60638,7 +60641,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C128" s="14">
         <v>0</v>
@@ -60648,15 +60651,15 @@
         <v>203</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -60664,7 +60667,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
@@ -60674,15 +60677,15 @@
         <v>203</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -60690,7 +60693,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C130" s="14">
         <v>0</v>
@@ -60700,15 +60703,15 @@
         <v>203</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -60716,7 +60719,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C131" s="17">
         <v>0</v>
@@ -60726,15 +60729,15 @@
         <v>203</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -60742,7 +60745,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C132" s="14">
         <v>0</v>
@@ -60752,15 +60755,15 @@
         <v>203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -60768,7 +60771,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C133" s="17">
         <v>0</v>
@@ -60778,15 +60781,15 @@
         <v>203</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -60794,7 +60797,7 @@
         <v>135</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C134" s="14">
         <v>0</v>
@@ -60804,15 +60807,15 @@
         <v>203</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -60820,7 +60823,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
@@ -60830,15 +60833,15 @@
         <v>203</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -60846,7 +60849,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
@@ -60856,15 +60859,15 @@
         <v>203</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -60872,7 +60875,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C137" s="17">
         <v>0</v>
@@ -60882,15 +60885,15 @@
         <v>203</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -60898,7 +60901,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C138" s="14">
         <v>0</v>
@@ -60908,15 +60911,15 @@
         <v>203</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -60924,7 +60927,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
@@ -60934,15 +60937,15 @@
         <v>203</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -60950,7 +60953,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C140" s="14">
         <v>0</v>
@@ -60960,15 +60963,15 @@
         <v>203</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -60976,7 +60979,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
@@ -60986,15 +60989,15 @@
         <v>210</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -61002,25 +61005,25 @@
         <v>143</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -61028,25 +61031,25 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -61054,25 +61057,25 @@
         <v>145</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -61080,25 +61083,25 @@
         <v>146</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -61106,27 +61109,27 @@
         <v>159</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -61134,27 +61137,27 @@
         <v>160</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -61162,27 +61165,27 @@
         <v>161</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -61190,16 +61193,16 @@
         <v>162</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>241</v>
@@ -61210,7 +61213,7 @@
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -61218,27 +61221,27 @@
         <v>164</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C150" s="14">
         <v>0</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -61246,25 +61249,25 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C151" s="17">
         <v>0</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -61272,25 +61275,25 @@
         <v>166</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C152" s="14">
         <v>1</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -61298,25 +61301,25 @@
         <v>167</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -61324,25 +61327,25 @@
         <v>168</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -61350,25 +61353,25 @@
         <v>169</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -61376,25 +61379,25 @@
         <v>170</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -61402,25 +61405,25 @@
         <v>171</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C157" s="17">
         <v>0</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -61428,25 +61431,25 @@
         <v>172</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C158" s="14">
         <v>0</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -61454,25 +61457,25 @@
         <v>173</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -61480,25 +61483,25 @@
         <v>174</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -61506,7 +61509,7 @@
         <v>175</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C161" s="17">
         <v>3</v>
@@ -61516,15 +61519,15 @@
         <v>210</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -61532,7 +61535,7 @@
         <v>176</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
@@ -61542,15 +61545,15 @@
         <v>210</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -61558,7 +61561,7 @@
         <v>177</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C163" s="17">
         <v>2</v>
@@ -61568,15 +61571,15 @@
         <v>210</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -61584,27 +61587,27 @@
         <v>178</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -61612,27 +61615,27 @@
         <v>179</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -61640,27 +61643,27 @@
         <v>180</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -61668,25 +61671,25 @@
         <v>181</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -61694,7 +61697,7 @@
         <v>182</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>261</v>
@@ -61704,15 +61707,15 @@
         <v>210</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -61720,25 +61723,25 @@
         <v>183</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -61746,25 +61749,25 @@
         <v>184</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -61772,25 +61775,25 @@
         <v>185</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="16" t="s">
         <v>210</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -61798,25 +61801,25 @@
         <v>187</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -61824,25 +61827,25 @@
         <v>188</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -61850,27 +61853,27 @@
         <v>189</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -61878,7 +61881,7 @@
         <v>190</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C175" s="17">
         <v>3</v>
@@ -61888,15 +61891,15 @@
         <v>203</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -61904,7 +61907,7 @@
         <v>191</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C176" s="14">
         <v>4</v>
@@ -61914,15 +61917,15 @@
         <v>210</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -61930,27 +61933,27 @@
         <v>192</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C177" s="17">
         <v>8</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -61958,7 +61961,7 @@
         <v>193</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C178" s="14">
         <v>2</v>
@@ -61967,18 +61970,18 @@
         <v>258</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -61986,25 +61989,25 @@
         <v>194</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
       <c r="J179" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -62012,25 +62015,25 @@
         <v>195</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -62038,27 +62041,27 @@
         <v>196</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
       <c r="J181" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -62066,25 +62069,25 @@
         <v>198</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -62092,7 +62095,7 @@
         <v>199</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C183" s="17">
         <v>3</v>
@@ -62102,15 +62105,15 @@
         <v>210</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
       <c r="J183" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -62118,27 +62121,27 @@
         <v>200</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -62176,10 +62179,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
@@ -62187,11 +62190,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -62200,11 +62203,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -62213,11 +62216,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -62226,11 +62229,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -62239,11 +62242,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -62252,7 +62255,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -62263,11 +62266,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -62276,11 +62279,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -62289,11 +62292,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -62302,11 +62305,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -62315,11 +62318,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -62328,11 +62331,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -62341,11 +62344,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -62354,11 +62357,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -62367,11 +62370,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -62380,11 +62383,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -62393,11 +62396,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -62406,11 +62409,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -62419,11 +62422,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -62432,11 +62435,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -62445,11 +62448,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -62458,11 +62461,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -62471,11 +62474,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -62484,11 +62487,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -62497,11 +62500,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -62510,11 +62513,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -62523,11 +62526,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -62536,11 +62539,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -62549,11 +62552,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -62562,11 +62565,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -62575,11 +62578,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -62588,11 +62591,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -62601,11 +62604,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -62614,11 +62617,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -62627,11 +62630,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -62640,11 +62643,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -62653,11 +62656,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -62666,11 +62669,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -62679,11 +62682,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -62692,11 +62695,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -62705,11 +62708,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -62718,11 +62721,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -62731,11 +62734,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -62744,11 +62747,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -62757,11 +62760,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -62770,11 +62773,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -62783,11 +62786,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -62796,11 +62799,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -62809,11 +62812,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -62822,11 +62825,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -62835,11 +62838,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -62848,11 +62851,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -62861,11 +62864,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -62874,11 +62877,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -62887,11 +62890,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -62900,11 +62903,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -62913,11 +62916,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -62926,11 +62929,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -62939,11 +62942,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -62952,11 +62955,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -62965,11 +62968,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -62978,11 +62981,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -62991,11 +62994,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -63004,11 +63007,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -63017,11 +63020,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -63030,11 +63033,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -63043,11 +63046,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -63056,11 +63059,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -63069,11 +63072,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -63082,7 +63085,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -63093,7 +63096,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -63104,7 +63107,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -63115,7 +63118,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -63126,7 +63129,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -63137,7 +63140,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -63148,7 +63151,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -63159,7 +63162,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -63170,7 +63173,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -63181,7 +63184,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -63192,7 +63195,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -63203,7 +63206,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -63214,7 +63217,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -63225,7 +63228,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -63236,7 +63239,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -63247,7 +63250,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -63258,7 +63261,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -63269,7 +63272,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -63280,7 +63283,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -63291,7 +63294,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -63302,7 +63305,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -63313,7 +63316,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -63324,7 +63327,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -63335,7 +63338,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -63346,7 +63349,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -63357,7 +63360,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -63368,7 +63371,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -63379,7 +63382,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -63390,7 +63393,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>

--- a/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="15500"/>
+    <workbookView windowWidth="24720" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -54780,8 +54780,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
